--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{590620F2-0069-431F-9932-3928D3391D32}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D03F5F87-0401-466F-8B79-B337419DF378}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
@@ -1031,7 +1031,7 @@
         <v>44207</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>4800</v>
@@ -1051,7 +1051,7 @@
         <v>44221</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>6000</v>
@@ -1071,7 +1071,7 @@
         <v>44235</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C32">
         <v>12000</v>
@@ -1091,7 +1091,7 @@
         <v>44253</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="C33">
         <v>22800</v>
@@ -1111,7 +1111,7 @@
         <v>44267</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C34">
         <v>30000</v>
@@ -1131,7 +1131,7 @@
         <v>44280</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="C35">
         <v>45600</v>
@@ -1151,7 +1151,7 @@
         <v>44294</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="C36">
         <v>38400</v>
@@ -1168,16 +1168,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44315</v>
+        <v>44311</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C37">
         <v>21600</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1">
         <v>44302</v>
@@ -16552,6 +16552,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -16762,15 +16771,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -16778,6 +16778,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6107EEC8-B1FE-4ABF-8E07-9A759B16FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16796,14 +16804,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
   <ds:schemaRefs>

--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D03F5F87-0401-466F-8B79-B337419DF378}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EBFC8A4B-F657-4C11-9EEE-88AB2C5CB2B1}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4567" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -897,7 +897,7 @@
         <v>203580</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1">
         <v>44301</v>
@@ -917,7 +917,7 @@
         <v>205920</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1">
         <v>44301</v>
@@ -1217,10 +1217,10 @@
         <v>25200</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1237,10 +1237,10 @@
         <v>36000</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1">
-        <v>44302</v>
+        <v>44316</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1591,7 +1591,7 @@
         <v>44294</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="C58">
         <v>16800</v>
@@ -1631,7 +1631,7 @@
         <v>44305</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="C60">
         <v>40800</v>
@@ -1651,7 +1651,7 @@
         <v>44312</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C61">
         <v>12000</v>
@@ -1668,19 +1668,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44320</v>
+        <v>44316</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>50000</v>
+        <v>180000</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44319</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
+      <c r="E63" s="1">
+        <v>44312</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1877,10 +1877,10 @@
         <v>6500</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E72" s="1">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -16552,12 +16552,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16772,15 +16769,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16805,10 +16806,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FDECAE92-AC04-4F62-B8FA-CD60E884CA03}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0FA63114-3209-45E0-B4EC-711CE919D122}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D2043-2151-4D0B-BD90-27D03564EEE2}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1887,19 +1887,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44333</v>
+        <v>44330</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44320</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -1907,19 +1907,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44340</v>
+        <v>44337</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44328</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44347</v>
+        <v>44344</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44354</v>
+        <v>44351</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44361</v>
+        <v>44358</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44368</v>
+        <v>44365</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44375</v>
+        <v>44372</v>
       </c>
       <c r="B79">
         <v>0</v>

--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0FA63114-3209-45E0-B4EC-711CE919D122}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D0341BA-9DE0-4774-A644-D2FEBEA49F94}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -431,21 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D2043-2151-4D0B-BD90-27D03564EEE2}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:F79"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44191</v>
       </c>
@@ -485,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44200</v>
       </c>
@@ -505,7 +503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44207</v>
       </c>
@@ -525,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44214</v>
       </c>
@@ -545,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44221</v>
       </c>
@@ -565,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44228</v>
       </c>
@@ -585,7 +583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44235</v>
       </c>
@@ -605,7 +603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44243</v>
       </c>
@@ -625,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44244</v>
       </c>
@@ -645,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44245</v>
       </c>
@@ -665,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44249</v>
       </c>
@@ -685,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44256</v>
       </c>
@@ -705,7 +703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44263</v>
       </c>
@@ -725,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44270</v>
       </c>
@@ -745,7 +743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44277</v>
       </c>
@@ -765,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44284</v>
       </c>
@@ -785,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44291</v>
       </c>
@@ -805,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44298</v>
       </c>
@@ -825,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44305</v>
       </c>
@@ -845,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44312</v>
       </c>
@@ -865,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44319</v>
       </c>
@@ -879,13 +877,13 @@
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <v>44309</v>
+        <v>44323</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44326</v>
       </c>
@@ -896,16 +894,16 @@
         <v>203580</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44333</v>
       </c>
@@ -916,16 +914,16 @@
         <v>205920</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>44301</v>
+        <v>44334</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44340</v>
       </c>
@@ -936,16 +934,16 @@
         <v>205920</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1">
-        <v>44301</v>
+        <v>44334</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44347</v>
       </c>
@@ -965,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44354</v>
       </c>
@@ -985,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44361</v>
       </c>
@@ -1005,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44368</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44207</v>
       </c>
@@ -1045,7 +1043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44221</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44235</v>
       </c>
@@ -1085,7 +1083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44253</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44267</v>
       </c>
@@ -1125,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44280</v>
       </c>
@@ -1145,7 +1143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44294</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44311</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44309</v>
       </c>
@@ -1196,7 +1194,7 @@
         <v>-10000</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
@@ -1205,7 +1203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44315</v>
       </c>
@@ -1225,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44322</v>
       </c>
@@ -1245,7 +1243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44329</v>
       </c>
@@ -1256,16 +1254,16 @@
         <v>36000</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>44302</v>
+        <v>44323</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44336</v>
       </c>
@@ -1276,16 +1274,16 @@
         <v>36000</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1">
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44343</v>
       </c>
@@ -1299,13 +1297,13 @@
         <v>14</v>
       </c>
       <c r="E43" s="1">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44350</v>
       </c>
@@ -1319,13 +1317,13 @@
         <v>14</v>
       </c>
       <c r="E44" s="1">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44357</v>
       </c>
@@ -1339,13 +1337,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="1">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44364</v>
       </c>
@@ -1359,13 +1357,13 @@
         <v>14</v>
       </c>
       <c r="E46" s="1">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44371</v>
       </c>
@@ -1379,13 +1377,13 @@
         <v>14</v>
       </c>
       <c r="E47" s="1">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44378</v>
       </c>
@@ -1399,101 +1397,101 @@
         <v>14</v>
       </c>
       <c r="E48" s="1">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>48000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44330</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>48000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1">
+        <v>44330</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>48000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44330</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>48000</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44330</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>44232</v>
       </c>
-      <c r="B49">
+      <c r="B53">
         <v>2160</v>
       </c>
-      <c r="C49">
+      <c r="C53">
         <v>21600</v>
-      </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>44237</v>
-      </c>
-      <c r="B50">
-        <v>2880</v>
-      </c>
-      <c r="C50">
-        <v>28800</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>44244</v>
-      </c>
-      <c r="B51">
-        <v>4560</v>
-      </c>
-      <c r="C51">
-        <v>45600</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>44253</v>
-      </c>
-      <c r="B52">
-        <v>4080</v>
-      </c>
-      <c r="C52">
-        <v>40800</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>44260</v>
-      </c>
-      <c r="B53">
-        <v>6000</v>
-      </c>
-      <c r="C53">
-        <v>60000</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1505,15 +1503,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44267</v>
+        <v>44237</v>
       </c>
       <c r="B54">
-        <v>4620</v>
+        <v>2880</v>
       </c>
       <c r="C54">
-        <v>46200</v>
+        <v>28800</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1525,15 +1523,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="B55">
-        <v>1200</v>
+        <v>4560</v>
       </c>
       <c r="C55">
-        <v>12000</v>
+        <v>45600</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1545,15 +1543,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44280</v>
+        <v>44253</v>
       </c>
       <c r="B56">
-        <v>1200</v>
+        <v>4080</v>
       </c>
       <c r="C56">
-        <v>12000</v>
+        <v>40800</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1565,15 +1563,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44287</v>
+        <v>44260</v>
       </c>
       <c r="B57">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="C57">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1585,15 +1583,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44294</v>
+        <v>44267</v>
       </c>
       <c r="B58">
-        <v>1680</v>
+        <v>4620</v>
       </c>
       <c r="C58">
-        <v>16800</v>
+        <v>46200</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1605,15 +1603,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44301</v>
+        <v>44273</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1625,15 +1623,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44305</v>
+        <v>44280</v>
       </c>
       <c r="B60">
-        <v>4080</v>
+        <v>1200</v>
       </c>
       <c r="C60">
-        <v>40800</v>
+        <v>12000</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1645,15 +1643,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44312</v>
+        <v>44287</v>
       </c>
       <c r="B61">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="C61">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1665,169 +1663,169 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="C62">
-        <v>180000</v>
+        <v>16800</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="1">
-        <v>44319</v>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44327</v>
+        <v>44301</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>38400</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="1">
-        <v>44324</v>
+        <v>5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44334</v>
+        <v>44305</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="C64">
-        <v>42562</v>
+        <v>40800</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="1">
-        <v>44324</v>
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44341</v>
+        <v>44312</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C65">
-        <v>192671</v>
+        <v>12000</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="1">
-        <v>44324</v>
+        <v>5</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44348</v>
+        <v>44316</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="C66">
-        <v>50000</v>
+        <v>180000</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44319</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44355</v>
+        <v>44327</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="C67">
-        <v>50000</v>
+        <v>38400</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44324</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44362</v>
+        <v>44334</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>50000</v>
+        <v>28800</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44324</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44369</v>
+        <v>44341</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>50000</v>
+        <v>192671</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>11</v>
+      <c r="E69" s="1">
+        <v>44324</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44376</v>
+        <v>44348</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1845,98 +1843,98 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>50000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>50000</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>50000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>50000</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>44300</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
         <v>9600</v>
       </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>44315</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>6500</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="1">
-        <v>44316</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>44330</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>12000</v>
-      </c>
-      <c r="D73" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="1">
-        <v>44320</v>
-      </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>44337</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>12000</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="1">
-        <v>44328</v>
-      </c>
-      <c r="F74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>44344</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>10000</v>
-      </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>11</v>
@@ -1945,75 +1943,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44351</v>
+        <v>44315</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>44316</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44329</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44365</v>
+        <v>44337</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>10000</v>
+        <v>11600</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E78" s="1">
+        <v>44333</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44372</v>
+        <v>44344</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2022,6 +2020,86 @@
         <v>11</v>
       </c>
       <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>50000</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>50000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>50000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>50000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2031,6 +2109,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2241,22 +2334,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6107EEC8-B1FE-4ABF-8E07-9A759B16FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2273,21 +2368,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D0341BA-9DE0-4774-A644-D2FEBEA49F94}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{758269D7-767F-4D3C-87BF-E5BC9B09A6CD}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -431,19 +431,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D2043-2151-4D0B-BD90-27D03564EEE2}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44191</v>
       </c>
@@ -483,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44200</v>
       </c>
@@ -503,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44207</v>
       </c>
@@ -523,7 +525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44214</v>
       </c>
@@ -543,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44221</v>
       </c>
@@ -563,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44228</v>
       </c>
@@ -583,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44235</v>
       </c>
@@ -603,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44243</v>
       </c>
@@ -623,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44244</v>
       </c>
@@ -643,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44245</v>
       </c>
@@ -663,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44249</v>
       </c>
@@ -683,7 +685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44256</v>
       </c>
@@ -703,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44263</v>
       </c>
@@ -723,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44270</v>
       </c>
@@ -743,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44277</v>
       </c>
@@ -763,7 +765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44284</v>
       </c>
@@ -783,7 +785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44291</v>
       </c>
@@ -803,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44298</v>
       </c>
@@ -823,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44305</v>
       </c>
@@ -843,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44312</v>
       </c>
@@ -863,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44319</v>
       </c>
@@ -883,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44326</v>
       </c>
@@ -903,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44333</v>
       </c>
@@ -923,7 +925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44340</v>
       </c>
@@ -934,7 +936,7 @@
         <v>205920</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1">
         <v>44334</v>
@@ -943,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44347</v>
       </c>
@@ -954,7 +956,7 @@
         <v>228150</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1">
         <v>44301</v>
@@ -963,27 +965,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44354</v>
       </c>
       <c r="B27">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="C27">
-        <v>229320</v>
+        <v>193050</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="1">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44361</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44368</v>
       </c>
@@ -1023,95 +1025,95 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B30">
+        <v>196</v>
+      </c>
+      <c r="C30">
+        <v>229320</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44301</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>117000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>117000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>117000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>44207</v>
       </c>
-      <c r="B30">
+      <c r="B34">
         <v>48</v>
       </c>
-      <c r="C30">
+      <c r="C34">
         <v>4800</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>44221</v>
-      </c>
-      <c r="B31">
-        <v>60</v>
-      </c>
-      <c r="C31">
-        <v>6000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>44235</v>
-      </c>
-      <c r="B32">
-        <v>120</v>
-      </c>
-      <c r="C32">
-        <v>12000</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>44253</v>
-      </c>
-      <c r="B33">
-        <v>228</v>
-      </c>
-      <c r="C33">
-        <v>22800</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>44267</v>
-      </c>
-      <c r="B34">
-        <v>300</v>
-      </c>
-      <c r="C34">
-        <v>30000</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1123,15 +1125,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44280</v>
+        <v>44221</v>
       </c>
       <c r="B35">
-        <v>456</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>45600</v>
+        <v>6000</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1143,15 +1145,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44294</v>
+        <v>44235</v>
       </c>
       <c r="B36">
-        <v>384</v>
+        <v>120</v>
       </c>
       <c r="C36">
-        <v>38400</v>
+        <v>12000</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1163,38 +1165,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44311</v>
+        <v>44253</v>
       </c>
       <c r="B37">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C37">
-        <v>21600</v>
+        <v>22800</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="1">
-        <v>44302</v>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44309</v>
+        <v>44267</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C38">
-        <v>-10000</v>
+        <v>30000</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
@@ -1203,109 +1205,109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44315</v>
+        <v>44280</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="C39">
-        <v>25200</v>
+        <v>45600</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="1">
-        <v>44325</v>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44322</v>
+        <v>44294</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="C40">
-        <v>36000</v>
+        <v>38400</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="1">
-        <v>44325</v>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44329</v>
+        <v>44311</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C41">
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>44323</v>
+        <v>44302</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44336</v>
+        <v>44309</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>36000</v>
+        <v>-10000</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="1">
-        <v>44333</v>
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>36000</v>
+        <v>25200</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1">
-        <v>44330</v>
+        <v>44325</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44350</v>
+        <v>44322</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1314,18 +1316,18 @@
         <v>36000</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1">
-        <v>44330</v>
+        <v>44325</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44357</v>
+        <v>44329</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1334,64 +1336,64 @@
         <v>36000</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44364</v>
+        <v>44336</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>38400</v>
+        <v>36000</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44371</v>
+        <v>44343</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>40800</v>
+        <v>36000</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44378</v>
+        <v>44350</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>40800</v>
+        <v>36000</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -1403,15 +1405,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44385</v>
+        <v>44357</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>48000</v>
+        <v>36000</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -1423,15 +1425,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44392</v>
+        <v>44364</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>48000</v>
+        <v>38400</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -1443,15 +1445,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44399</v>
+        <v>44371</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>48000</v>
+        <v>40800</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -1463,15 +1465,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44406</v>
+        <v>44378</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>48000</v>
+        <v>40800</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -1483,95 +1485,95 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>48000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1">
+        <v>44330</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>48000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44330</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>48000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1">
+        <v>44330</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>48000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44330</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>44232</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <v>2160</v>
       </c>
-      <c r="C53">
+      <c r="C57">
         <v>21600</v>
-      </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>44237</v>
-      </c>
-      <c r="B54">
-        <v>2880</v>
-      </c>
-      <c r="C54">
-        <v>28800</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>44244</v>
-      </c>
-      <c r="B55">
-        <v>4560</v>
-      </c>
-      <c r="C55">
-        <v>45600</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>44253</v>
-      </c>
-      <c r="B56">
-        <v>4080</v>
-      </c>
-      <c r="C56">
-        <v>40800</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>44260</v>
-      </c>
-      <c r="B57">
-        <v>6000</v>
-      </c>
-      <c r="C57">
-        <v>60000</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1583,15 +1585,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44267</v>
+        <v>44237</v>
       </c>
       <c r="B58">
-        <v>4620</v>
+        <v>2880</v>
       </c>
       <c r="C58">
-        <v>46200</v>
+        <v>28800</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1603,15 +1605,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="B59">
-        <v>1200</v>
+        <v>4560</v>
       </c>
       <c r="C59">
-        <v>12000</v>
+        <v>45600</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1623,15 +1625,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44280</v>
+        <v>44253</v>
       </c>
       <c r="B60">
-        <v>1200</v>
+        <v>4080</v>
       </c>
       <c r="C60">
-        <v>12000</v>
+        <v>40800</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1643,15 +1645,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44287</v>
+        <v>44260</v>
       </c>
       <c r="B61">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="C61">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1663,15 +1665,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44294</v>
+        <v>44267</v>
       </c>
       <c r="B62">
-        <v>1680</v>
+        <v>4620</v>
       </c>
       <c r="C62">
-        <v>16800</v>
+        <v>46200</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1683,15 +1685,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44301</v>
+        <v>44273</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1703,15 +1705,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44305</v>
+        <v>44280</v>
       </c>
       <c r="B64">
-        <v>4080</v>
+        <v>1200</v>
       </c>
       <c r="C64">
-        <v>40800</v>
+        <v>12000</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1723,15 +1725,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44312</v>
+        <v>44287</v>
       </c>
       <c r="B65">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="C65">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1743,175 +1745,175 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="B66">
-        <v>18000</v>
+        <v>1680</v>
       </c>
       <c r="C66">
-        <v>180000</v>
+        <v>16800</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="1">
-        <v>44319</v>
+      <c r="E66" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44327</v>
+        <v>44301</v>
       </c>
       <c r="B67">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>38400</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="1">
-        <v>44324</v>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44334</v>
+        <v>44305</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="C68">
-        <v>28800</v>
+        <v>40800</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="1">
-        <v>44324</v>
+        <v>5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44341</v>
+        <v>44312</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C69">
-        <v>192671</v>
+        <v>12000</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="1">
-        <v>44324</v>
+        <v>5</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44348</v>
+        <v>44316</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="C70">
-        <v>50000</v>
+        <v>180000</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44319</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44355</v>
+        <v>44327</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="C71">
-        <v>50000</v>
+        <v>38400</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44324</v>
       </c>
       <c r="F71" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44362</v>
+        <v>44334</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="C72">
-        <v>50000</v>
+        <v>28800</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44337</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44369</v>
+        <v>44341</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>50000</v>
+        <v>158400</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44339</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44376</v>
+        <v>44348</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -1923,95 +1925,95 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44300</v>
+        <v>44355</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>9600</v>
+        <v>30000</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44315</v>
+        <v>44362</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>6500</v>
+        <v>30000</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="1">
-        <v>44316</v>
+        <v>9</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44330</v>
+        <v>44369</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="1">
-        <v>44329</v>
+        <v>9</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44337</v>
+        <v>44376</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>11600</v>
+        <v>30000</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="1">
-        <v>44333</v>
+        <v>9</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44344</v>
+        <v>44383</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2020,18 +2022,18 @@
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44351</v>
+        <v>44390</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -2040,18 +2042,18 @@
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44358</v>
+        <v>44397</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2060,18 +2062,18 @@
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44365</v>
+        <v>44404</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -2080,26 +2082,286 @@
         <v>11</v>
       </c>
       <c r="F82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>9600</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>6500</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>44316</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>12000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="1">
+        <v>44329</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>11600</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="1">
+        <v>44335</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>26400</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>44343</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>26400</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>26400</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>26400</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>44372</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>50000</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>26400</v>
+      </c>
+      <c r="D91" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>26400</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>26400</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>26400</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>26400</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>26400</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2109,18 +2371,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2335,18 +2597,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{758269D7-767F-4D3C-87BF-E5BC9B09A6CD}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CA3D7E2-6ACF-45D6-8AE9-031BDC78A0E5}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Planned</t>
+  </si>
+  <si>
+    <t>Sputnik</t>
   </si>
 </sst>
 </file>
@@ -431,21 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D2043-2151-4D0B-BD90-27D03564EEE2}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F96"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44191</v>
       </c>
@@ -485,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44200</v>
       </c>
@@ -505,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44207</v>
       </c>
@@ -525,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44214</v>
       </c>
@@ -545,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44221</v>
       </c>
@@ -565,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44228</v>
       </c>
@@ -585,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44235</v>
       </c>
@@ -605,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44243</v>
       </c>
@@ -625,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44244</v>
       </c>
@@ -645,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44245</v>
       </c>
@@ -665,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44249</v>
       </c>
@@ -685,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44256</v>
       </c>
@@ -705,7 +706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44263</v>
       </c>
@@ -725,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44270</v>
       </c>
@@ -745,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44277</v>
       </c>
@@ -765,7 +766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44284</v>
       </c>
@@ -785,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44291</v>
       </c>
@@ -805,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44298</v>
       </c>
@@ -825,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44305</v>
       </c>
@@ -845,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44312</v>
       </c>
@@ -865,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44319</v>
       </c>
@@ -885,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44326</v>
       </c>
@@ -905,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44333</v>
       </c>
@@ -925,7 +926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44340</v>
       </c>
@@ -945,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44347</v>
       </c>
@@ -956,7 +957,7 @@
         <v>228150</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
         <v>44301</v>
@@ -965,7 +966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44354</v>
       </c>
@@ -976,7 +977,7 @@
         <v>193050</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1">
         <v>44343</v>
@@ -985,18 +986,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44361</v>
       </c>
       <c r="B28">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="C28">
-        <v>229320</v>
+        <v>193050</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1">
         <v>44301</v>
@@ -1005,18 +1006,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44368</v>
       </c>
       <c r="B29">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C29">
-        <v>229320</v>
+        <v>265590</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1">
         <v>44301</v>
@@ -1025,7 +1026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44375</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44382</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44389</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44396</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44207</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44221</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44235</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44253</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44267</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44280</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44294</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44311</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44309</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44315</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44322</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44329</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44336</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44343</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>36000</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E47" s="1">
         <v>44340</v>
@@ -1385,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44350</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>36000</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1">
         <v>44330</v>
@@ -1405,9 +1406,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44357</v>
+        <v>44362</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1416,7 +1417,7 @@
         <v>36000</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1">
         <v>44330</v>
@@ -1425,9 +1426,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1436,7 +1437,7 @@
         <v>38400</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1">
         <v>44330</v>
@@ -1445,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44371</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44378</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44385</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44392</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44399</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44406</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44232</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44237</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44244</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44253</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44260</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44267</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44273</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44280</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44287</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44294</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44301</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44305</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44312</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44316</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44327</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44334</v>
       </c>
@@ -1885,18 +1886,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44341</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>15840</v>
       </c>
       <c r="C73">
         <v>158400</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E73" s="1">
         <v>44339</v>
@@ -1905,29 +1906,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44348</v>
+        <v>44361</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44361</v>
       </c>
       <c r="F74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1945,9 +1946,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44362</v>
+        <v>44376</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1965,9 +1966,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44369</v>
+        <v>44383</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1985,9 +1986,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44376</v>
+        <v>44390</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2005,9 +2006,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44383</v>
+        <v>44397</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2025,9 +2026,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44390</v>
+        <v>44404</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2045,175 +2046,175 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44397</v>
+        <v>44300</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>30000</v>
+        <v>9600</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44404</v>
+        <v>44315</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>30000</v>
+        <v>6500</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>44316</v>
       </c>
       <c r="F82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44300</v>
+        <v>44330</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>9600</v>
+        <v>12000</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>11</v>
+      <c r="E83" s="1">
+        <v>44329</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44315</v>
+        <v>44337</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>6500</v>
+        <v>11600</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="1">
-        <v>44316</v>
+        <v>44335</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44330</v>
+        <v>44344</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>12000</v>
+        <v>26400</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
       </c>
       <c r="E85" s="1">
-        <v>44329</v>
+        <v>44343</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>44337</v>
+        <v>44351</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>11600</v>
+        <v>23760</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="1">
-        <v>44335</v>
+        <v>44344</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44344</v>
+        <v>44358</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>26400</v>
+        <v>12600</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
       </c>
       <c r="E87" s="1">
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>44351</v>
+        <v>44362</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>26400</v>
+        <v>12000</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E88" s="1">
+        <v>44354</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44358</v>
+        <v>44369</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>26400</v>
+        <v>23760</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -2225,15 +2226,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44365</v>
+        <v>44376</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>26400</v>
+        <v>23760</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -2245,15 +2246,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>26400</v>
+        <v>23760</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2265,15 +2266,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44379</v>
+        <v>44390</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>26400</v>
+        <v>23760</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2285,15 +2286,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44386</v>
+        <v>44397</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>26400</v>
+        <v>23760</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2305,15 +2306,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44393</v>
+        <v>44404</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>26400</v>
+        <v>23760</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2325,44 +2326,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44400</v>
+        <v>44256</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>26400</v>
+        <v>200000</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>44407</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>26400</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2371,18 +2352,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2597,18 +2578,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CA3D7E2-6ACF-45D6-8AE9-031BDC78A0E5}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC67E330-C389-48FB-881C-93C63336729A}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D2043-2151-4D0B-BD90-27D03564EEE2}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +997,7 @@
         <v>193050</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1">
         <v>44301</v>
@@ -1017,7 +1017,7 @@
         <v>265590</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
         <v>44301</v>
@@ -1031,16 +1031,16 @@
         <v>44375</v>
       </c>
       <c r="B30">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C30">
-        <v>229320</v>
+        <v>265590</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>44301</v>
+        <v>44376</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -1051,16 +1051,16 @@
         <v>44382</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C31">
-        <v>117000</v>
+        <v>83070</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44376</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -1071,10 +1071,10 @@
         <v>44389</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C32">
-        <v>117000</v>
+        <v>83070</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1091,10 +1091,10 @@
         <v>44396</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C33">
-        <v>117000</v>
+        <v>83070</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>36000</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E49" s="1">
         <v>44330</v>
@@ -1431,13 +1431,13 @@
         <v>44365</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="C50">
         <v>38400</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1">
         <v>44330</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>40800</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1">
         <v>44330</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1477,10 +1477,10 @@
         <v>40800</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1">
-        <v>44330</v>
+        <v>44372</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1931,16 +1931,16 @@
         <v>44369</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>5760</v>
       </c>
       <c r="C75">
-        <v>30000</v>
+        <v>57600</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44363</v>
       </c>
       <c r="F75" t="s">
         <v>8</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>30000</v>
+        <v>328800</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>11</v>
@@ -2197,10 +2197,10 @@
         <v>12000</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E88" s="1">
-        <v>44354</v>
+        <v>44362</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2208,19 +2208,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44369</v>
+        <v>44376</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>23760</v>
+        <v>22615</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>44372</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2228,16 +2228,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>23760</v>
+        <v>16800</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>11</v>
@@ -2248,13 +2248,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>23760</v>
+        <v>23000</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>23760</v>
+        <v>23000</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2288,13 +2288,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44397</v>
+        <v>44404</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>23760</v>
+        <v>23000</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2308,41 +2308,21 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44404</v>
+        <v>44256</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>23760</v>
+        <v>200000</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>44256</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>200000</v>
-      </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2352,21 +2332,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2577,24 +2542,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6107EEC8-B1FE-4ABF-8E07-9A759B16FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2611,4 +2574,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC67E330-C389-48FB-881C-93C63336729A}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10E91CB5-4B1E-4AEB-B784-58A86AD8433F}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>AstraZeneca</t>
-  </si>
-  <si>
-    <t>Assumption</t>
   </si>
   <si>
     <t>J&amp;J</t>
@@ -434,9 +431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D2043-2151-4D0B-BD90-27D03564EEE2}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:F101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -460,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -480,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -500,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -520,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -540,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -560,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -580,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -600,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -620,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -640,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -660,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -680,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -700,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -720,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -740,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -760,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -780,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -800,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -820,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -840,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -860,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -1057,7 +1056,7 @@
         <v>83070</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
         <v>44376</v>
@@ -1077,10 +1076,10 @@
         <v>83070</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44379</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -1097,10 +1096,10 @@
         <v>83070</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44396</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -1108,99 +1107,99 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44207</v>
+        <v>44403</v>
       </c>
       <c r="B34">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C34">
-        <v>4800</v>
+        <v>84240</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>11</v>
+      <c r="E34" s="1">
+        <v>44412</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44221</v>
+        <v>44410</v>
       </c>
       <c r="B35">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C35">
-        <v>6000</v>
+        <v>65520</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>11</v>
+      <c r="E35" s="1">
+        <v>44412</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44235</v>
+        <v>44417</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="C36">
-        <v>12000</v>
+        <v>65520</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>11</v>
+      <c r="E36" s="1">
+        <v>44412</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44253</v>
+        <v>44424</v>
       </c>
       <c r="B37">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="C37">
-        <v>22800</v>
+        <v>65520</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44412</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44267</v>
+        <v>44207</v>
       </c>
       <c r="B38">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="C38">
-        <v>30000</v>
+        <v>4800</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1208,19 +1207,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44280</v>
+        <v>44221</v>
       </c>
       <c r="B39">
-        <v>456</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>45600</v>
+        <v>6000</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1228,19 +1227,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44294</v>
+        <v>44235</v>
       </c>
       <c r="B40">
-        <v>384</v>
+        <v>120</v>
       </c>
       <c r="C40">
-        <v>38400</v>
+        <v>12000</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1248,19 +1247,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44311</v>
+        <v>44253</v>
       </c>
       <c r="B41">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C41">
-        <v>21600</v>
+        <v>22800</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="1">
-        <v>44302</v>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1268,19 +1267,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44309</v>
+        <v>44267</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C42">
-        <v>-10000</v>
+        <v>30000</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -1288,19 +1287,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44315</v>
+        <v>44280</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="C43">
-        <v>25200</v>
+        <v>45600</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="1">
-        <v>44325</v>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -1308,19 +1307,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44322</v>
+        <v>44294</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="C44">
-        <v>36000</v>
+        <v>38400</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="1">
-        <v>44325</v>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -1328,19 +1327,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44329</v>
+        <v>44311</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C45">
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>44323</v>
+        <v>44302</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1348,19 +1347,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44336</v>
+        <v>44309</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>36000</v>
+        <v>-10000</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="1">
-        <v>44340</v>
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -1368,19 +1367,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="C47">
-        <v>36000</v>
+        <v>25200</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="1">
-        <v>44340</v>
+        <v>44325</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1388,10 +1387,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44350</v>
+        <v>44322</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C48">
         <v>36000</v>
@@ -1400,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="1">
-        <v>44330</v>
+        <v>44325</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1408,10 +1407,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44362</v>
+        <v>44329</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C49">
         <v>36000</v>
@@ -1420,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="1">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1428,19 +1427,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44365</v>
+        <v>44336</v>
       </c>
       <c r="B50">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C50">
-        <v>38400</v>
+        <v>36000</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="E50" s="1">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1448,19 +1447,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44372</v>
+        <v>44343</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C51">
-        <v>40800</v>
+        <v>36000</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="1">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1468,19 +1467,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44379</v>
+        <v>44350</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C52">
-        <v>40800</v>
+        <v>36000</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1">
-        <v>44372</v>
+        <v>44330</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1488,16 +1487,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44386</v>
+        <v>44362</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C53">
-        <v>48000</v>
+        <v>36000</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1">
         <v>44330</v>
@@ -1508,16 +1507,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44393</v>
+        <v>44365</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="C54">
-        <v>48000</v>
+        <v>38400</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1">
         <v>44330</v>
@@ -1528,19 +1527,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44400</v>
+        <v>44372</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C55">
-        <v>48000</v>
+        <v>40800</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
-        <v>44330</v>
+        <v>44378</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1548,19 +1547,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44407</v>
+        <v>44379</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C56">
-        <v>48000</v>
+        <v>40800</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
-        <v>44330</v>
+        <v>44372</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -1568,179 +1567,179 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44232</v>
+        <v>44386</v>
       </c>
       <c r="B57">
-        <v>2160</v>
+        <v>312</v>
       </c>
       <c r="C57">
-        <v>21600</v>
+        <v>31200</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>11</v>
+      <c r="E57" s="1">
+        <v>44379</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44237</v>
+        <v>44393</v>
       </c>
       <c r="B58">
-        <v>2880</v>
+        <v>312</v>
       </c>
       <c r="C58">
-        <v>28800</v>
+        <v>31200</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>11</v>
+      <c r="E58" s="1">
+        <v>44378</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44244</v>
+        <v>44400</v>
       </c>
       <c r="B59">
-        <v>4560</v>
+        <v>312</v>
       </c>
       <c r="C59">
-        <v>45600</v>
+        <v>31200</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>11</v>
+      <c r="E59" s="1">
+        <v>44392</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44253</v>
+        <v>44407</v>
       </c>
       <c r="B60">
-        <v>4080</v>
+        <v>312</v>
       </c>
       <c r="C60">
-        <v>40800</v>
+        <v>31200</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>11</v>
+      <c r="E60" s="1">
+        <v>44378</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44260</v>
+        <v>44414</v>
       </c>
       <c r="B61">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>60000</v>
+        <v>61200</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44378</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44267</v>
+        <v>44421</v>
       </c>
       <c r="B62">
-        <v>4620</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>46200</v>
+        <v>61200</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44378</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44273</v>
+        <v>44428</v>
       </c>
       <c r="B63">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>12000</v>
+        <v>61200</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44378</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44280</v>
+        <v>44435</v>
       </c>
       <c r="B64">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>12000</v>
+        <v>61200</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44378</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44287</v>
+        <v>44232</v>
       </c>
       <c r="B65">
-        <v>12000</v>
+        <v>2160</v>
       </c>
       <c r="C65">
-        <v>120000</v>
+        <v>21600</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -1748,19 +1747,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44294</v>
+        <v>44237</v>
       </c>
       <c r="B66">
-        <v>1680</v>
+        <v>2880</v>
       </c>
       <c r="C66">
-        <v>16800</v>
+        <v>28800</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -1768,19 +1767,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44301</v>
+        <v>44244</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>4560</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>45600</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -1788,7 +1787,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44305</v>
+        <v>44253</v>
       </c>
       <c r="B68">
         <v>4080</v>
@@ -1800,7 +1799,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
@@ -1808,19 +1807,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="B69">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="C69">
-        <v>12000</v>
+        <v>60000</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
@@ -1828,19 +1827,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44316</v>
+        <v>44267</v>
       </c>
       <c r="B70">
-        <v>18000</v>
+        <v>4620</v>
       </c>
       <c r="C70">
-        <v>180000</v>
+        <v>46200</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="1">
-        <v>44319</v>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
@@ -1848,19 +1847,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44327</v>
+        <v>44273</v>
       </c>
       <c r="B71">
-        <v>3840</v>
+        <v>1200</v>
       </c>
       <c r="C71">
-        <v>38400</v>
+        <v>12000</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="1">
-        <v>44324</v>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F71" t="s">
         <v>8</v>
@@ -1868,19 +1867,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44334</v>
+        <v>44280</v>
       </c>
       <c r="B72">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="C72">
-        <v>28800</v>
+        <v>12000</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="1">
-        <v>44337</v>
+      <c r="E72" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
@@ -1888,19 +1887,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44341</v>
+        <v>44287</v>
       </c>
       <c r="B73">
-        <v>15840</v>
+        <v>12000</v>
       </c>
       <c r="C73">
-        <v>158400</v>
+        <v>120000</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="1">
-        <v>44339</v>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
@@ -1908,19 +1907,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44361</v>
+        <v>44294</v>
       </c>
       <c r="B74">
-        <v>4800</v>
+        <v>1680</v>
       </c>
       <c r="C74">
-        <v>48000</v>
+        <v>16800</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="1">
-        <v>44361</v>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F74" t="s">
         <v>8</v>
@@ -1928,19 +1927,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="B75">
-        <v>5760</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>57600</v>
+        <v>0</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="1">
-        <v>44363</v>
+      <c r="E75" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F75" t="s">
         <v>8</v>
@@ -1948,19 +1947,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44376</v>
+        <v>44305</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="C76">
-        <v>328800</v>
+        <v>40800</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
@@ -1968,19 +1967,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44383</v>
+        <v>44312</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C77">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
         <v>8</v>
@@ -1988,19 +1987,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44390</v>
+        <v>44316</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="C78">
-        <v>30000</v>
+        <v>180000</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>44319</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
@@ -2008,19 +2007,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44397</v>
+        <v>44327</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="C79">
-        <v>30000</v>
+        <v>38400</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44324</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
@@ -2028,19 +2027,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44404</v>
+        <v>44334</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="C80">
-        <v>30000</v>
+        <v>28800</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>44337</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
@@ -2048,282 +2047,422 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44300</v>
+        <v>44341</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>15840</v>
       </c>
       <c r="C81">
-        <v>9600</v>
+        <v>158400</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>11</v>
+      <c r="E81" s="1">
+        <v>44339</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44315</v>
+        <v>44361</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="C82">
-        <v>6500</v>
+        <v>48000</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
       </c>
       <c r="E82" s="1">
-        <v>44316</v>
+        <v>44361</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44330</v>
+        <v>44369</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>5760</v>
       </c>
       <c r="C83">
-        <v>12000</v>
+        <v>57600</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
       <c r="E83" s="1">
-        <v>44329</v>
+        <v>44375</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44337</v>
+        <v>44376</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>32880</v>
       </c>
       <c r="C84">
-        <v>11600</v>
+        <v>328800</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="1">
-        <v>44335</v>
+        <v>44377</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44344</v>
+        <v>44383</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>5760</v>
       </c>
       <c r="C85">
-        <v>26400</v>
+        <v>57600</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
       </c>
       <c r="E85" s="1">
-        <v>44343</v>
+        <v>44385</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>44351</v>
+        <v>44392</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="C86">
-        <v>23760</v>
+        <v>28800</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="1">
-        <v>44344</v>
+        <v>44400</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44358</v>
+        <v>44400</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="C87">
-        <v>12600</v>
+        <v>79200</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
       </c>
       <c r="E87" s="1">
-        <v>44350</v>
+        <v>44400</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>44362</v>
+        <v>44406</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>10560</v>
       </c>
       <c r="C88">
-        <v>12000</v>
+        <v>105600</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
       </c>
       <c r="E88" s="1">
-        <v>44362</v>
+        <v>44407</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44376</v>
+        <v>44300</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C89">
-        <v>22615</v>
+        <v>9600</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="1">
-        <v>44372</v>
+      <c r="E89" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44383</v>
+        <v>44315</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C90">
-        <v>16800</v>
+        <v>6500</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>44316</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44390</v>
+        <v>44330</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C91">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44329</v>
+      </c>
+      <c r="F91" t="s">
         <v>9</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44397</v>
+        <v>44337</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C92">
-        <v>23000</v>
+        <v>11600</v>
       </c>
       <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>44335</v>
+      </c>
+      <c r="F92" t="s">
         <v>9</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44404</v>
+        <v>44344</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="C93">
-        <v>23000</v>
+        <v>26400</v>
       </c>
       <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>44343</v>
+      </c>
+      <c r="F93" t="s">
         <v>9</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B94">
+        <v>432</v>
+      </c>
+      <c r="C94">
+        <v>21600</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>44344</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B95">
+        <v>240</v>
+      </c>
+      <c r="C95">
+        <v>12000</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>44350</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B96">
+        <v>120</v>
+      </c>
+      <c r="C96">
+        <v>6000</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1">
+        <v>44362</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B97">
+        <v>203</v>
+      </c>
+      <c r="C97">
+        <v>10150</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>44378</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B98">
+        <v>624</v>
+      </c>
+      <c r="C98">
+        <v>31200</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>44379</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>16800</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>44406</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>44256</v>
       </c>
-      <c r="B94">
+      <c r="B100">
         <v>0</v>
       </c>
-      <c r="C94">
+      <c r="C100">
         <v>200000</v>
       </c>
-      <c r="D94" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" t="s">
-        <v>15</v>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>-160000</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2332,6 +2471,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2542,12 +2687,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2558,6 +2697,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6107EEC8-B1FE-4ABF-8E07-9A759B16FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2576,15 +2724,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
   <ds:schemaRefs>

--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10E91CB5-4B1E-4AEB-B784-58A86AD8433F}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82FE42C2-A70D-487F-9F71-40C5DB44DABA}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -66,16 +66,7 @@
     <t>J&amp;J</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Status update</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
-    <t>Planned</t>
   </si>
   <si>
     <t>Sputnik</t>
@@ -431,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D2043-2151-4D0B-BD90-27D03564EEE2}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:F101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -459,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -478,9 +469,6 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
@@ -498,9 +486,6 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
@@ -518,9 +503,6 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -538,9 +520,6 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
@@ -558,9 +537,6 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
@@ -578,9 +554,6 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
@@ -598,9 +571,6 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
@@ -618,9 +588,6 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
@@ -638,9 +605,6 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
@@ -658,9 +622,6 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
@@ -678,9 +639,6 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
@@ -698,9 +656,6 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -718,9 +673,6 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
@@ -738,9 +690,6 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
@@ -758,9 +707,6 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
@@ -778,9 +724,6 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F17" t="s">
         <v>6</v>
       </c>
@@ -798,9 +741,6 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
@@ -818,9 +758,6 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -838,9 +775,6 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
@@ -858,9 +792,6 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
@@ -878,9 +809,6 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="1">
-        <v>44323</v>
-      </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
@@ -898,9 +826,6 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="1">
-        <v>44328</v>
-      </c>
       <c r="F23" t="s">
         <v>6</v>
       </c>
@@ -918,9 +843,6 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="1">
-        <v>44334</v>
-      </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
@@ -938,9 +860,6 @@
       <c r="D25" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="1">
-        <v>44334</v>
-      </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
@@ -958,9 +877,6 @@
       <c r="D26" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="1">
-        <v>44301</v>
-      </c>
       <c r="F26" t="s">
         <v>6</v>
       </c>
@@ -978,9 +894,6 @@
       <c r="D27" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="1">
-        <v>44343</v>
-      </c>
       <c r="F27" t="s">
         <v>6</v>
       </c>
@@ -998,9 +911,6 @@
       <c r="D28" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="1">
-        <v>44301</v>
-      </c>
       <c r="F28" t="s">
         <v>6</v>
       </c>
@@ -1018,9 +928,6 @@
       <c r="D29" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
-        <v>44301</v>
-      </c>
       <c r="F29" t="s">
         <v>6</v>
       </c>
@@ -1038,9 +945,6 @@
       <c r="D30" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="1">
-        <v>44376</v>
-      </c>
       <c r="F30" t="s">
         <v>6</v>
       </c>
@@ -1058,9 +962,6 @@
       <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="1">
-        <v>44376</v>
-      </c>
       <c r="F31" t="s">
         <v>6</v>
       </c>
@@ -1078,9 +979,6 @@
       <c r="D32" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="1">
-        <v>44379</v>
-      </c>
       <c r="F32" t="s">
         <v>6</v>
       </c>
@@ -1098,9 +996,6 @@
       <c r="D33" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="1">
-        <v>44396</v>
-      </c>
       <c r="F33" t="s">
         <v>6</v>
       </c>
@@ -1118,9 +1013,6 @@
       <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
-        <v>44412</v>
-      </c>
       <c r="F34" t="s">
         <v>6</v>
       </c>
@@ -1138,9 +1030,6 @@
       <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="1">
-        <v>44412</v>
-      </c>
       <c r="F35" t="s">
         <v>6</v>
       </c>
@@ -1158,9 +1047,6 @@
       <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="1">
-        <v>44412</v>
-      </c>
       <c r="F36" t="s">
         <v>6</v>
       </c>
@@ -1170,16 +1056,13 @@
         <v>44424</v>
       </c>
       <c r="B37">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37">
-        <v>65520</v>
+        <v>66690</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1">
-        <v>44412</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
         <v>6</v>
@@ -1187,199 +1070,169 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44207</v>
+        <v>44431</v>
       </c>
       <c r="B38">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C38">
-        <v>4800</v>
+        <v>67860</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44221</v>
+        <v>44438</v>
       </c>
       <c r="B39">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C39">
-        <v>6000</v>
+        <v>94770</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44235</v>
+        <v>44445</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C40">
-        <v>12000</v>
+        <v>94770</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44253</v>
+        <v>44452</v>
       </c>
       <c r="B41">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="C41">
-        <v>22800</v>
+        <v>63180</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44267</v>
+        <v>44459</v>
       </c>
       <c r="B42">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="C42">
-        <v>30000</v>
+        <v>225810</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44280</v>
+        <v>44466</v>
       </c>
       <c r="B43">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="C43">
-        <v>45600</v>
+        <v>573300</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44294</v>
+        <v>44473</v>
       </c>
       <c r="B44">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>38400</v>
+        <v>12870</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44311</v>
+        <v>44480</v>
       </c>
       <c r="B45">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>21600</v>
+        <v>12870</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="1">
-        <v>44302</v>
-      </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44309</v>
+        <v>44487</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>-10000</v>
+        <v>12870</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44315</v>
+        <v>44207</v>
       </c>
       <c r="B47">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c r="C47">
-        <v>25200</v>
+        <v>4800</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
-      </c>
-      <c r="E47" s="1">
-        <v>44325</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1387,19 +1240,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44322</v>
+        <v>44221</v>
       </c>
       <c r="B48">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="C48">
-        <v>36000</v>
+        <v>6000</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
-      </c>
-      <c r="E48" s="1">
-        <v>44325</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1407,19 +1257,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44329</v>
+        <v>44235</v>
       </c>
       <c r="B49">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="C49">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
-      </c>
-      <c r="E49" s="1">
-        <v>44323</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1427,19 +1274,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44336</v>
+        <v>44253</v>
       </c>
       <c r="B50">
-        <v>360</v>
+        <v>228</v>
       </c>
       <c r="C50">
-        <v>36000</v>
+        <v>22800</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
-      </c>
-      <c r="E50" s="1">
-        <v>44340</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1447,19 +1291,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44343</v>
+        <v>44267</v>
       </c>
       <c r="B51">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C51">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
-      </c>
-      <c r="E51" s="1">
-        <v>44340</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1467,19 +1308,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44350</v>
+        <v>44280</v>
       </c>
       <c r="B52">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="C52">
-        <v>36000</v>
+        <v>45600</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
-      </c>
-      <c r="E52" s="1">
-        <v>44330</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1487,19 +1325,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44362</v>
+        <v>44294</v>
       </c>
       <c r="B53">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C53">
-        <v>36000</v>
+        <v>38400</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
-      </c>
-      <c r="E53" s="1">
-        <v>44330</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1507,19 +1342,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44365</v>
+        <v>44311</v>
       </c>
       <c r="B54">
-        <v>384</v>
+        <v>216</v>
       </c>
       <c r="C54">
-        <v>38400</v>
+        <v>21600</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
-      </c>
-      <c r="E54" s="1">
-        <v>44330</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -1527,19 +1359,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44372</v>
+        <v>44315</v>
       </c>
       <c r="B55">
-        <v>408</v>
+        <v>252</v>
       </c>
       <c r="C55">
-        <v>40800</v>
+        <v>25200</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
-      </c>
-      <c r="E55" s="1">
-        <v>44378</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1547,19 +1376,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44379</v>
+        <v>44322</v>
       </c>
       <c r="B56">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C56">
-        <v>40800</v>
+        <v>36000</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
-      </c>
-      <c r="E56" s="1">
-        <v>44372</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -1567,19 +1393,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44386</v>
+        <v>44329</v>
       </c>
       <c r="B57">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C57">
-        <v>31200</v>
+        <v>36000</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
-      </c>
-      <c r="E57" s="1">
-        <v>44379</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -1587,19 +1410,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44393</v>
+        <v>44336</v>
       </c>
       <c r="B58">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C58">
-        <v>31200</v>
+        <v>36000</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
-      </c>
-      <c r="E58" s="1">
-        <v>44378</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -1607,19 +1427,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44400</v>
+        <v>44343</v>
       </c>
       <c r="B59">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C59">
-        <v>31200</v>
+        <v>36000</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
-      </c>
-      <c r="E59" s="1">
-        <v>44392</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -1627,19 +1444,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44407</v>
+        <v>44350</v>
       </c>
       <c r="B60">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C60">
-        <v>31200</v>
+        <v>36000</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
-      </c>
-      <c r="E60" s="1">
-        <v>44378</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -1647,19 +1461,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44414</v>
+        <v>44351</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C61">
-        <v>61200</v>
+        <v>-10000</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="1">
-        <v>44378</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -1667,19 +1478,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44421</v>
+        <v>44362</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C62">
-        <v>61200</v>
+        <v>36000</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="1">
-        <v>44378</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -1687,19 +1495,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44428</v>
+        <v>44365</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="C63">
-        <v>61200</v>
+        <v>38400</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="1">
-        <v>44378</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -1707,19 +1512,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44435</v>
+        <v>44372</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C64">
-        <v>61200</v>
+        <v>40800</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="1">
-        <v>44378</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -1727,279 +1529,237 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44232</v>
+        <v>44379</v>
       </c>
       <c r="B65">
-        <v>2160</v>
+        <v>408</v>
       </c>
       <c r="C65">
-        <v>21600</v>
+        <v>40800</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44237</v>
+        <v>44386</v>
       </c>
       <c r="B66">
-        <v>2880</v>
+        <v>312</v>
       </c>
       <c r="C66">
-        <v>28800</v>
+        <v>31200</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44244</v>
+        <v>44393</v>
       </c>
       <c r="B67">
-        <v>4560</v>
+        <v>312</v>
       </c>
       <c r="C67">
-        <v>45600</v>
+        <v>31200</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44253</v>
+        <v>44400</v>
       </c>
       <c r="B68">
-        <v>4080</v>
+        <v>312</v>
       </c>
       <c r="C68">
-        <v>40800</v>
+        <v>31200</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44260</v>
+        <v>44407</v>
       </c>
       <c r="B69">
-        <v>6000</v>
+        <v>312</v>
       </c>
       <c r="C69">
-        <v>60000</v>
+        <v>31200</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44267</v>
+        <v>44414</v>
       </c>
       <c r="B70">
-        <v>4620</v>
+        <v>312</v>
       </c>
       <c r="C70">
-        <v>46200</v>
+        <v>31200</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="B71">
-        <v>1200</v>
+        <v>312</v>
       </c>
       <c r="C71">
-        <v>12000</v>
+        <v>31200</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44280</v>
+        <v>44427</v>
       </c>
       <c r="B72">
-        <v>1200</v>
+        <v>312</v>
       </c>
       <c r="C72">
-        <v>12000</v>
+        <v>31200</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44287</v>
+        <v>44428</v>
       </c>
       <c r="B73">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="C73">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44294</v>
+        <v>44435</v>
       </c>
       <c r="B74">
-        <v>1680</v>
+        <v>612</v>
       </c>
       <c r="C74">
-        <v>16800</v>
+        <v>61200</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44301</v>
+        <v>44498</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44305</v>
+        <v>44505</v>
       </c>
       <c r="B76">
-        <v>4080</v>
+        <v>156</v>
       </c>
       <c r="C76">
-        <v>40800</v>
+        <v>15600</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44312</v>
+        <v>44509</v>
       </c>
       <c r="B77">
-        <v>1200</v>
+        <v>-607</v>
       </c>
       <c r="C77">
-        <v>12000</v>
+        <v>-60700</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="B78">
-        <v>18000</v>
+        <v>2160</v>
       </c>
       <c r="C78">
-        <v>180000</v>
+        <v>21600</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
-      </c>
-      <c r="E78" s="1">
-        <v>44319</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
@@ -2007,19 +1767,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44327</v>
+        <v>44237</v>
       </c>
       <c r="B79">
-        <v>3840</v>
+        <v>2880</v>
       </c>
       <c r="C79">
-        <v>38400</v>
+        <v>28800</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
-      </c>
-      <c r="E79" s="1">
-        <v>44324</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
@@ -2027,19 +1784,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44334</v>
+        <v>44244</v>
       </c>
       <c r="B80">
-        <v>2880</v>
+        <v>4560</v>
       </c>
       <c r="C80">
-        <v>28800</v>
+        <v>45600</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
-      </c>
-      <c r="E80" s="1">
-        <v>44337</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
@@ -2047,19 +1801,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="B81">
-        <v>15840</v>
+        <v>4080</v>
       </c>
       <c r="C81">
-        <v>158400</v>
+        <v>40800</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
-      </c>
-      <c r="E81" s="1">
-        <v>44339</v>
       </c>
       <c r="F81" t="s">
         <v>8</v>
@@ -2067,19 +1818,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44361</v>
+        <v>44260</v>
       </c>
       <c r="B82">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="C82">
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
-      </c>
-      <c r="E82" s="1">
-        <v>44361</v>
       </c>
       <c r="F82" t="s">
         <v>8</v>
@@ -2087,19 +1835,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44369</v>
+        <v>44267</v>
       </c>
       <c r="B83">
-        <v>5760</v>
+        <v>4620</v>
       </c>
       <c r="C83">
-        <v>57600</v>
+        <v>46200</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
-      </c>
-      <c r="E83" s="1">
-        <v>44375</v>
       </c>
       <c r="F83" t="s">
         <v>8</v>
@@ -2107,19 +1852,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44376</v>
+        <v>44273</v>
       </c>
       <c r="B84">
-        <v>32880</v>
+        <v>1200</v>
       </c>
       <c r="C84">
-        <v>328800</v>
+        <v>12000</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
-      </c>
-      <c r="E84" s="1">
-        <v>44377</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
@@ -2127,19 +1869,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44383</v>
+        <v>44280</v>
       </c>
       <c r="B85">
-        <v>5760</v>
+        <v>1200</v>
       </c>
       <c r="C85">
-        <v>57600</v>
+        <v>12000</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
-      </c>
-      <c r="E85" s="1">
-        <v>44385</v>
       </c>
       <c r="F85" t="s">
         <v>8</v>
@@ -2147,19 +1886,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>44392</v>
+        <v>44287</v>
       </c>
       <c r="B86">
-        <v>2880</v>
+        <v>12000</v>
       </c>
       <c r="C86">
-        <v>28800</v>
+        <v>120000</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
-      </c>
-      <c r="E86" s="1">
-        <v>44400</v>
       </c>
       <c r="F86" t="s">
         <v>8</v>
@@ -2167,19 +1903,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44400</v>
+        <v>44294</v>
       </c>
       <c r="B87">
-        <v>7920</v>
+        <v>1680</v>
       </c>
       <c r="C87">
-        <v>79200</v>
+        <v>16800</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
-      </c>
-      <c r="E87" s="1">
-        <v>44400</v>
       </c>
       <c r="F87" t="s">
         <v>8</v>
@@ -2187,19 +1920,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>44406</v>
+        <v>44305</v>
       </c>
       <c r="B88">
-        <v>10560</v>
+        <v>4080</v>
       </c>
       <c r="C88">
-        <v>105600</v>
+        <v>40800</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
-      </c>
-      <c r="E88" s="1">
-        <v>44407</v>
       </c>
       <c r="F88" t="s">
         <v>8</v>
@@ -2207,262 +1937,631 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44300</v>
+        <v>44312</v>
       </c>
       <c r="B89">
-        <v>192</v>
+        <v>1200</v>
       </c>
       <c r="C89">
-        <v>9600</v>
+        <v>12000</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B90">
-        <v>130</v>
+        <v>18000</v>
       </c>
       <c r="C90">
-        <v>6500</v>
+        <v>180000</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="1">
-        <v>44316</v>
-      </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="B91">
-        <v>240</v>
+        <v>3840</v>
       </c>
       <c r="C91">
-        <v>12000</v>
+        <v>38400</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="1">
-        <v>44329</v>
-      </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44337</v>
+        <v>44334</v>
       </c>
       <c r="B92">
-        <v>232</v>
+        <v>2880</v>
       </c>
       <c r="C92">
-        <v>11600</v>
+        <v>28800</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="1">
-        <v>44335</v>
-      </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44344</v>
+        <v>44341</v>
       </c>
       <c r="B93">
-        <v>528</v>
+        <v>15840</v>
       </c>
       <c r="C93">
-        <v>26400</v>
+        <v>158400</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="1">
-        <v>44343</v>
-      </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44351</v>
+        <v>44361</v>
       </c>
       <c r="B94">
-        <v>432</v>
+        <v>4800</v>
       </c>
       <c r="C94">
-        <v>21600</v>
+        <v>48000</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="1">
-        <v>44344</v>
-      </c>
       <c r="F94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44358</v>
+        <v>44369</v>
       </c>
       <c r="B95">
-        <v>240</v>
+        <v>5760</v>
       </c>
       <c r="C95">
-        <v>12000</v>
+        <v>57600</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="1">
-        <v>44350</v>
-      </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44362</v>
+        <v>44376</v>
       </c>
       <c r="B96">
-        <v>120</v>
+        <v>32880</v>
       </c>
       <c r="C96">
-        <v>6000</v>
+        <v>328800</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="1">
-        <v>44362</v>
-      </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="B97">
-        <v>203</v>
+        <v>5760</v>
       </c>
       <c r="C97">
-        <v>10150</v>
+        <v>57600</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="1">
-        <v>44378</v>
-      </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>44383</v>
+        <v>44392</v>
       </c>
       <c r="B98">
-        <v>624</v>
+        <v>2880</v>
       </c>
       <c r="C98">
-        <v>31200</v>
+        <v>28800</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="1">
-        <v>44379</v>
-      </c>
       <c r="F98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44404</v>
+        <v>44400</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="C99">
-        <v>16800</v>
+        <v>79200</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="1">
-        <v>44406</v>
-      </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44256</v>
+        <v>44406</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>10560</v>
       </c>
       <c r="C100">
-        <v>200000</v>
+        <v>105600</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B101">
+        <v>-6000</v>
+      </c>
+      <c r="C101">
+        <v>-60000</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B102">
+        <v>-1000</v>
+      </c>
+      <c r="C102">
+        <v>-10000</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B103">
+        <v>-16000</v>
+      </c>
+      <c r="C103">
+        <v>-160000</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B104">
+        <v>-28000</v>
+      </c>
+      <c r="C104">
+        <v>-280000</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B105">
+        <v>-16000</v>
+      </c>
+      <c r="C105">
+        <v>-160000</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B106">
+        <v>-10000</v>
+      </c>
+      <c r="C106">
+        <v>-100000</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B107">
+        <v>192</v>
+      </c>
+      <c r="C107">
+        <v>9600</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B108">
+        <v>130</v>
+      </c>
+      <c r="C108">
+        <v>6500</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B109">
+        <v>240</v>
+      </c>
+      <c r="C109">
+        <v>12000</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B110">
+        <v>232</v>
+      </c>
+      <c r="C110">
+        <v>11600</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B111">
+        <v>528</v>
+      </c>
+      <c r="C111">
+        <v>26400</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B112">
+        <v>432</v>
+      </c>
+      <c r="C112">
+        <v>21600</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B113">
+        <v>240</v>
+      </c>
+      <c r="C113">
+        <v>12000</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B114">
+        <v>240</v>
+      </c>
+      <c r="C114">
+        <v>12000</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B115">
+        <v>406</v>
+      </c>
+      <c r="C115">
+        <v>20300</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B116">
+        <v>624</v>
+      </c>
+      <c r="C116">
+        <v>31200</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B117">
+        <v>336</v>
+      </c>
+      <c r="C117">
+        <v>16800</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B118">
+        <v>336</v>
+      </c>
+      <c r="C118">
+        <v>16800</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B119">
+        <v>624</v>
+      </c>
+      <c r="C119">
+        <v>31200</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B120">
+        <v>672</v>
+      </c>
+      <c r="C120">
+        <v>33600</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B121">
+        <v>672</v>
+      </c>
+      <c r="C121">
+        <v>33600</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B122">
+        <v>1008</v>
+      </c>
+      <c r="C122">
+        <v>50400</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B123">
+        <v>2592</v>
+      </c>
+      <c r="C123">
+        <v>129600</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>200000</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>44379</v>
       </c>
-      <c r="B101">
+      <c r="B125">
         <v>0</v>
       </c>
-      <c r="C101">
+      <c r="C125">
         <v>-160000</v>
       </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2471,12 +2570,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2687,6 +2780,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2697,15 +2796,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6107EEC8-B1FE-4ABF-8E07-9A759B16FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2724,6 +2814,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
   <ds:schemaRefs>

--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82FE42C2-A70D-487F-9F71-40C5DB44DABA}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61035985-0697-4EEA-AE49-1FD09B2184D3}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Sputnik</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Exported</t>
   </si>
 </sst>
 </file>
@@ -424,9 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D2043-2151-4D0B-BD90-27D03564EEE2}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -469,6 +473,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
@@ -486,6 +493,9 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
@@ -503,6 +513,9 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -520,6 +533,9 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
@@ -537,6 +553,9 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
@@ -554,6 +573,9 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
@@ -571,6 +593,9 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
@@ -588,6 +613,9 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
@@ -605,6 +633,9 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
@@ -622,6 +653,9 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1504,7 @@
         <v>-10000</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -1742,7 +1776,7 @@
         <v>-60700</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -2150,7 +2184,7 @@
         <v>-60000</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>8</v>
@@ -2167,7 +2201,7 @@
         <v>-10000</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
         <v>8</v>
@@ -2184,7 +2218,7 @@
         <v>-160000</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
@@ -2201,7 +2235,7 @@
         <v>-280000</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>8</v>
@@ -2218,7 +2252,7 @@
         <v>-160000</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
         <v>8</v>
@@ -2235,7 +2269,7 @@
         <v>-100000</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
         <v>8</v>
@@ -2509,6 +2543,9 @@
       <c r="D122" t="s">
         <v>5</v>
       </c>
+      <c r="E122" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F122" t="s">
         <v>9</v>
       </c>
@@ -2526,6 +2563,9 @@
       <c r="D123" t="s">
         <v>5</v>
       </c>
+      <c r="E123" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F123" t="s">
         <v>9</v>
       </c>
@@ -2543,6 +2583,9 @@
       <c r="D124" t="s">
         <v>5</v>
       </c>
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F124" t="s">
         <v>11</v>
       </c>
@@ -2558,7 +2601,10 @@
         <v>-160000</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F125" t="s">
         <v>11</v>
@@ -2570,6 +2616,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2780,12 +2832,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2796,6 +2842,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6107EEC8-B1FE-4ABF-8E07-9A759B16FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2814,15 +2869,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
   <ds:schemaRefs>

--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sufliark\Documents\MZ-SR\git\covid19-data\Vaccination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{A8029464-5AE0-4E2A-8F1F-051093726448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61035985-0697-4EEA-AE49-1FD09B2184D3}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0511DE7F-58A8-4886-8A4D-77950D50765B}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,23 +65,43 @@
     <t>J&amp;J</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Status update</t>
   </si>
   <si>
-    <t>Sputnik</t>
+    <t>Exported</t>
   </si>
   <si>
-    <t/>
+    <t>Overuse</t>
   </si>
   <si>
-    <t>Exported</t>
+    <t>PfizerKids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -108,14 +127,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,10 +457,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D2043-2151-4D0B-BD90-27D03564EEE2}">
-  <dimension ref="A1:F125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -454,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -467,14 +499,11 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>9750</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -487,14 +516,11 @@
       <c r="B3">
         <v>78</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>76050</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -507,14 +533,11 @@
       <c r="B4">
         <v>44</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>42900</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -527,14 +550,11 @@
       <c r="B5">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>46800</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -547,14 +567,11 @@
       <c r="B6">
         <v>27</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>31590</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -567,14 +584,11 @@
       <c r="B7">
         <v>39</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>45630</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -587,14 +601,11 @@
       <c r="B8">
         <v>39</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>45630</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -607,14 +618,11 @@
       <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>10530</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -627,14 +635,11 @@
       <c r="B10">
         <v>34</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>39780</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -647,14 +652,11 @@
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>5850</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -667,7 +669,7 @@
       <c r="B12">
         <v>48</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>56160</v>
       </c>
       <c r="D12" t="s">
@@ -684,7 +686,7 @@
       <c r="B13">
         <v>44</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>51480</v>
       </c>
       <c r="D13" t="s">
@@ -701,7 +703,7 @@
       <c r="B14">
         <v>129</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>150930</v>
       </c>
       <c r="D14" t="s">
@@ -718,7 +720,7 @@
       <c r="B15">
         <v>44</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>51480</v>
       </c>
       <c r="D15" t="s">
@@ -735,7 +737,7 @@
       <c r="B16">
         <v>47</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>54990</v>
       </c>
       <c r="D16" t="s">
@@ -752,7 +754,7 @@
       <c r="B17">
         <v>47</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>54990</v>
       </c>
       <c r="D17" t="s">
@@ -769,7 +771,7 @@
       <c r="B18">
         <v>62</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>72540</v>
       </c>
       <c r="D18" t="s">
@@ -786,7 +788,7 @@
       <c r="B19">
         <v>63</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>73710</v>
       </c>
       <c r="D19" t="s">
@@ -803,7 +805,7 @@
       <c r="B20">
         <v>63</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>73710</v>
       </c>
       <c r="D20" t="s">
@@ -820,7 +822,7 @@
       <c r="B21">
         <v>113</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>132210</v>
       </c>
       <c r="D21" t="s">
@@ -837,7 +839,7 @@
       <c r="B22">
         <v>174</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>203580</v>
       </c>
       <c r="D22" t="s">
@@ -854,7 +856,7 @@
       <c r="B23">
         <v>174</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>203580</v>
       </c>
       <c r="D23" t="s">
@@ -871,7 +873,7 @@
       <c r="B24">
         <v>176</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>205920</v>
       </c>
       <c r="D24" t="s">
@@ -888,7 +890,7 @@
       <c r="B25">
         <v>176</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>205920</v>
       </c>
       <c r="D25" t="s">
@@ -905,7 +907,7 @@
       <c r="B26">
         <v>195</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>228150</v>
       </c>
       <c r="D26" t="s">
@@ -922,7 +924,7 @@
       <c r="B27">
         <v>165</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>193050</v>
       </c>
       <c r="D27" t="s">
@@ -939,7 +941,7 @@
       <c r="B28">
         <v>165</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>193050</v>
       </c>
       <c r="D28" t="s">
@@ -956,7 +958,7 @@
       <c r="B29">
         <v>227</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>265590</v>
       </c>
       <c r="D29" t="s">
@@ -973,7 +975,7 @@
       <c r="B30">
         <v>227</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>265590</v>
       </c>
       <c r="D30" t="s">
@@ -990,7 +992,7 @@
       <c r="B31">
         <v>71</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>83070</v>
       </c>
       <c r="D31" t="s">
@@ -1007,7 +1009,7 @@
       <c r="B32">
         <v>71</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>83070</v>
       </c>
       <c r="D32" t="s">
@@ -1024,7 +1026,7 @@
       <c r="B33">
         <v>71</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>83070</v>
       </c>
       <c r="D33" t="s">
@@ -1041,7 +1043,7 @@
       <c r="B34">
         <v>72</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>84240</v>
       </c>
       <c r="D34" t="s">
@@ -1058,7 +1060,7 @@
       <c r="B35">
         <v>56</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>65520</v>
       </c>
       <c r="D35" t="s">
@@ -1075,7 +1077,7 @@
       <c r="B36">
         <v>56</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>65520</v>
       </c>
       <c r="D36" t="s">
@@ -1092,7 +1094,7 @@
       <c r="B37">
         <v>57</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>66690</v>
       </c>
       <c r="D37" t="s">
@@ -1109,7 +1111,7 @@
       <c r="B38">
         <v>58</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>67860</v>
       </c>
       <c r="D38" t="s">
@@ -1126,7 +1128,7 @@
       <c r="B39">
         <v>81</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>94770</v>
       </c>
       <c r="D39" t="s">
@@ -1143,7 +1145,7 @@
       <c r="B40">
         <v>81</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>94770</v>
       </c>
       <c r="D40" t="s">
@@ -1160,7 +1162,7 @@
       <c r="B41">
         <v>54</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>63180</v>
       </c>
       <c r="D41" t="s">
@@ -1177,7 +1179,7 @@
       <c r="B42">
         <v>193</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>225810</v>
       </c>
       <c r="D42" t="s">
@@ -1194,7 +1196,7 @@
       <c r="B43">
         <v>490</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>573300</v>
       </c>
       <c r="D43" t="s">
@@ -1211,7 +1213,7 @@
       <c r="B44">
         <v>11</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>12870</v>
       </c>
       <c r="D44" t="s">
@@ -1228,7 +1230,7 @@
       <c r="B45">
         <v>11</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>12870</v>
       </c>
       <c r="D45" t="s">
@@ -1245,7 +1247,7 @@
       <c r="B46">
         <v>11</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>12870</v>
       </c>
       <c r="D46" t="s">
@@ -1257,132 +1259,133 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44207</v>
+        <v>44494</v>
       </c>
       <c r="B47">
-        <v>48</v>
-      </c>
-      <c r="C47">
-        <v>4800</v>
+        <v>10</v>
+      </c>
+      <c r="C47" s="4">
+        <v>11700</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44221</v>
+        <v>44533</v>
       </c>
       <c r="B48">
-        <v>60</v>
-      </c>
-      <c r="C48">
-        <v>6000</v>
+        <v>165</v>
+      </c>
+      <c r="C48" s="4">
+        <v>193050</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44235</v>
+        <v>44538</v>
       </c>
       <c r="B49">
-        <v>120</v>
-      </c>
-      <c r="C49">
-        <v>12000</v>
+        <v>166</v>
+      </c>
+      <c r="C49" s="4">
+        <v>194220</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44253</v>
+        <v>44545</v>
       </c>
       <c r="B50">
-        <v>228</v>
-      </c>
-      <c r="C50">
-        <v>22800</v>
+        <v>166</v>
+      </c>
+      <c r="C50" s="4">
+        <v>194220</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44267</v>
+        <v>44573</v>
       </c>
       <c r="B51">
-        <v>300</v>
-      </c>
-      <c r="C51">
-        <v>30000</v>
+        <v>26</v>
+      </c>
+      <c r="C51" s="5">
+        <v>30420</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44280</v>
+        <v>44580</v>
       </c>
       <c r="B52">
-        <v>456</v>
-      </c>
-      <c r="C52">
-        <v>45600</v>
+        <v>485</v>
+      </c>
+      <c r="C52" s="5">
+        <v>567450</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44294</v>
+        <v>44546</v>
       </c>
       <c r="B53">
-        <v>384</v>
-      </c>
-      <c r="C53">
-        <v>38400</v>
+        <v>160</v>
+      </c>
+      <c r="C53" s="5">
+        <v>156000</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44311</v>
+        <v>44207</v>
       </c>
       <c r="B54">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="C54">
-        <v>21600</v>
+        <v>4800</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1391,15 +1394,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44315</v>
+        <v>44221</v>
       </c>
       <c r="B55">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>25200</v>
+        <v>6000</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1408,15 +1411,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44322</v>
+        <v>44235</v>
       </c>
       <c r="B56">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="C56">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1425,15 +1428,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44329</v>
+        <v>44253</v>
       </c>
       <c r="B57">
-        <v>360</v>
+        <v>228</v>
       </c>
       <c r="C57">
-        <v>36000</v>
+        <v>22800</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1442,15 +1445,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44336</v>
+        <v>44267</v>
       </c>
       <c r="B58">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C58">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1459,15 +1462,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44343</v>
+        <v>44280</v>
       </c>
       <c r="B59">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="C59">
-        <v>36000</v>
+        <v>45600</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1476,15 +1479,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44350</v>
+        <v>44294</v>
       </c>
       <c r="B60">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C60">
-        <v>36000</v>
+        <v>38400</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1493,32 +1496,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44351</v>
+        <v>44311</v>
       </c>
       <c r="B61">
-        <v>-100</v>
+        <v>216</v>
       </c>
       <c r="C61">
-        <v>-10000</v>
+        <v>21600</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44362</v>
+        <v>44315</v>
       </c>
       <c r="B62">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="C62">
-        <v>36000</v>
+        <v>25200</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1527,15 +1530,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="B63">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C63">
-        <v>38400</v>
+        <v>36000</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1544,15 +1547,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44372</v>
+        <v>44329</v>
       </c>
       <c r="B64">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C64">
-        <v>40800</v>
+        <v>36000</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1563,13 +1566,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44379</v>
+        <v>44336</v>
       </c>
       <c r="B65">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C65">
-        <v>40800</v>
+        <v>36000</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1580,13 +1583,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44386</v>
+        <v>44343</v>
       </c>
       <c r="B66">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C66">
-        <v>31200</v>
+        <v>36000</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1597,13 +1600,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44393</v>
+        <v>44350</v>
       </c>
       <c r="B67">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C67">
-        <v>31200</v>
+        <v>36000</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1614,13 +1617,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44400</v>
+        <v>44362</v>
       </c>
       <c r="B68">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C68">
-        <v>31200</v>
+        <v>36000</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1631,13 +1634,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44407</v>
+        <v>44365</v>
       </c>
       <c r="B69">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="C69">
-        <v>31200</v>
+        <v>38400</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1648,13 +1651,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44414</v>
+        <v>44372</v>
       </c>
       <c r="B70">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="C70">
-        <v>31200</v>
+        <v>40800</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -1665,13 +1668,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44421</v>
+        <v>44379</v>
       </c>
       <c r="B71">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="C71">
-        <v>31200</v>
+        <v>40800</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44427</v>
+        <v>44386</v>
       </c>
       <c r="B72">
         <v>312</v>
@@ -1699,13 +1702,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44428</v>
+        <v>44393</v>
       </c>
       <c r="B73">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C73">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1716,13 +1719,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44435</v>
+        <v>44400</v>
       </c>
       <c r="B74">
-        <v>612</v>
+        <v>312</v>
       </c>
       <c r="C74">
-        <v>61200</v>
+        <v>31200</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1733,13 +1736,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44498</v>
+        <v>44407</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="C75">
-        <v>1200</v>
+        <v>31200</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -1750,13 +1753,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44505</v>
+        <v>44414</v>
       </c>
       <c r="B76">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="C76">
-        <v>15600</v>
+        <v>31200</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1767,16 +1770,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44509</v>
+        <v>44421</v>
       </c>
       <c r="B77">
-        <v>-607</v>
+        <v>312</v>
       </c>
       <c r="C77">
-        <v>-60700</v>
+        <v>31200</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -1784,353 +1787,398 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44232</v>
+        <v>44427</v>
       </c>
       <c r="B78">
-        <v>2160</v>
+        <v>312</v>
       </c>
       <c r="C78">
-        <v>21600</v>
+        <v>31200</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44237</v>
+        <v>44428</v>
       </c>
       <c r="B79">
-        <v>2880</v>
+        <v>300</v>
       </c>
       <c r="C79">
-        <v>28800</v>
+        <v>30000</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44244</v>
+        <v>44435</v>
       </c>
       <c r="B80">
-        <v>4560</v>
+        <v>612</v>
       </c>
       <c r="C80">
-        <v>45600</v>
+        <v>61200</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44253</v>
+        <v>44498</v>
       </c>
       <c r="B81">
-        <v>4080</v>
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>40800</v>
+        <v>1200</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44260</v>
+        <v>44505</v>
       </c>
       <c r="B82">
-        <v>6000</v>
+        <v>156</v>
       </c>
       <c r="C82">
-        <v>60000</v>
+        <v>15600</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44267</v>
+        <v>44351</v>
       </c>
       <c r="B83">
-        <v>4620</v>
+        <v>-607</v>
       </c>
       <c r="C83">
-        <v>46200</v>
+        <v>-60700</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44273</v>
+        <v>44351</v>
       </c>
       <c r="B84">
-        <v>1200</v>
+        <v>-10</v>
       </c>
       <c r="C84">
-        <v>12000</v>
+        <v>-10000</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>44280</v>
+      <c r="A85" s="3">
+        <v>44232</v>
       </c>
       <c r="B85">
-        <v>1200</v>
-      </c>
-      <c r="C85">
-        <v>12000</v>
+        <v>2160</v>
+      </c>
+      <c r="C85" s="2">
+        <v>21600</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>44287</v>
+      <c r="A86" s="3">
+        <v>44237</v>
       </c>
       <c r="B86">
-        <v>12000</v>
-      </c>
-      <c r="C86">
-        <v>120000</v>
+        <v>2880</v>
+      </c>
+      <c r="C86" s="2">
+        <v>28800</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F86" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>44294</v>
+      <c r="A87" s="3">
+        <v>44244</v>
       </c>
       <c r="B87">
-        <v>1680</v>
-      </c>
-      <c r="C87">
-        <v>16800</v>
+        <v>4560</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45600</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F87" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>44305</v>
+      <c r="A88" s="3">
+        <v>44253</v>
       </c>
       <c r="B88">
         <v>4080</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>40800</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F88" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>44312</v>
+      <c r="A89" s="3">
+        <v>44260</v>
       </c>
       <c r="B89">
-        <v>1200</v>
-      </c>
-      <c r="C89">
-        <v>12000</v>
+        <v>6000</v>
+      </c>
+      <c r="C89" s="2">
+        <v>60000</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F89" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>44316</v>
+      <c r="A90" s="3">
+        <v>44267</v>
       </c>
       <c r="B90">
-        <v>18000</v>
-      </c>
-      <c r="C90">
-        <v>180000</v>
+        <v>4620</v>
+      </c>
+      <c r="C90" s="2">
+        <v>46200</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F90" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>44327</v>
+      <c r="A91" s="3">
+        <v>44273</v>
       </c>
       <c r="B91">
-        <v>3840</v>
-      </c>
-      <c r="C91">
-        <v>38400</v>
+        <v>1200</v>
+      </c>
+      <c r="C91" s="2">
+        <v>12000</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>44334</v>
+      <c r="A92" s="3">
+        <v>44280</v>
       </c>
       <c r="B92">
-        <v>2880</v>
-      </c>
-      <c r="C92">
-        <v>28800</v>
+        <v>1200</v>
+      </c>
+      <c r="C92" s="2">
+        <v>12000</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F92" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>44341</v>
+      <c r="A93" s="3">
+        <v>44287</v>
       </c>
       <c r="B93">
-        <v>15840</v>
-      </c>
-      <c r="C93">
-        <v>158400</v>
+        <v>12000</v>
+      </c>
+      <c r="C93" s="2">
+        <v>120000</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F93" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>44361</v>
+      <c r="A94" s="3">
+        <v>44294</v>
       </c>
       <c r="B94">
-        <v>4800</v>
-      </c>
-      <c r="C94">
-        <v>48000</v>
+        <v>1680</v>
+      </c>
+      <c r="C94" s="2">
+        <v>16800</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>44369</v>
+      <c r="A95" s="3">
+        <v>44305</v>
       </c>
       <c r="B95">
-        <v>5760</v>
-      </c>
-      <c r="C95">
-        <v>57600</v>
+        <v>4080</v>
+      </c>
+      <c r="C95" s="2">
+        <v>40800</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F95" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>44376</v>
+      <c r="A96" s="3">
+        <v>44312</v>
       </c>
       <c r="B96">
-        <v>32880</v>
-      </c>
-      <c r="C96">
-        <v>328800</v>
+        <v>1200</v>
+      </c>
+      <c r="C96" s="2">
+        <v>12000</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F96" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>44383</v>
+      <c r="A97" s="3">
+        <v>44316</v>
       </c>
       <c r="B97">
-        <v>5760</v>
-      </c>
-      <c r="C97">
-        <v>57600</v>
+        <v>18000</v>
+      </c>
+      <c r="C97" s="2">
+        <v>180000</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>44392</v>
+      <c r="A98" s="3">
+        <v>44327</v>
       </c>
       <c r="B98">
-        <v>2880</v>
-      </c>
-      <c r="C98">
-        <v>28800</v>
+        <v>3840</v>
+      </c>
+      <c r="C98" s="2">
+        <v>38400</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -2140,14 +2188,14 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>44400</v>
+      <c r="A99" s="3">
+        <v>44334</v>
       </c>
       <c r="B99">
-        <v>7920</v>
-      </c>
-      <c r="C99">
-        <v>79200</v>
+        <v>2880</v>
+      </c>
+      <c r="C99" s="2">
+        <v>28800</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2157,14 +2205,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>44406</v>
+      <c r="A100" s="3">
+        <v>44341</v>
       </c>
       <c r="B100">
-        <v>10560</v>
-      </c>
-      <c r="C100">
-        <v>105600</v>
+        <v>15840</v>
+      </c>
+      <c r="C100" s="2">
+        <v>158400</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -2174,255 +2222,270 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>44420</v>
+      <c r="A101" s="3">
+        <v>44361</v>
       </c>
       <c r="B101">
-        <v>-6000</v>
-      </c>
-      <c r="C101">
-        <v>-60000</v>
+        <v>4800</v>
+      </c>
+      <c r="C101" s="2">
+        <v>48000</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F101" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>44427</v>
+      <c r="A102" s="3">
+        <v>44369</v>
       </c>
       <c r="B102">
-        <v>-1000</v>
-      </c>
-      <c r="C102">
-        <v>-10000</v>
+        <v>5760</v>
+      </c>
+      <c r="C102" s="2">
+        <v>57600</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F102" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>44462</v>
+      <c r="A103" s="3">
+        <v>44376</v>
       </c>
       <c r="B103">
-        <v>-16000</v>
-      </c>
-      <c r="C103">
-        <v>-160000</v>
+        <v>32880</v>
+      </c>
+      <c r="C103" s="2">
+        <v>328800</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>44476</v>
+      <c r="A104" s="3">
+        <v>44383</v>
       </c>
       <c r="B104">
-        <v>-28000</v>
-      </c>
-      <c r="C104">
-        <v>-280000</v>
+        <v>5760</v>
+      </c>
+      <c r="C104" s="2">
+        <v>57600</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F104" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>44476</v>
+      <c r="A105" s="3">
+        <v>44392</v>
       </c>
       <c r="B105">
-        <v>-16000</v>
-      </c>
-      <c r="C105">
-        <v>-160000</v>
+        <v>2880</v>
+      </c>
+      <c r="C105" s="2">
+        <v>28800</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F105" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>44481</v>
+      <c r="A106" s="3">
+        <v>44400</v>
       </c>
       <c r="B106">
-        <v>-10000</v>
-      </c>
-      <c r="C106">
-        <v>-100000</v>
+        <v>7920</v>
+      </c>
+      <c r="C106" s="2">
+        <v>79200</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>44300</v>
+      <c r="A107" s="3">
+        <v>44406</v>
       </c>
       <c r="B107">
-        <v>192</v>
-      </c>
-      <c r="C107">
-        <v>9600</v>
+        <v>10560</v>
+      </c>
+      <c r="C107" s="2">
+        <v>105600</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>44315</v>
+      <c r="A108" s="3">
+        <v>44420</v>
       </c>
       <c r="B108">
-        <v>130</v>
-      </c>
-      <c r="C108">
-        <v>6500</v>
+        <v>-6000</v>
+      </c>
+      <c r="C108" s="2">
+        <v>-60000</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>44330</v>
+      <c r="A109" s="3">
+        <v>44427</v>
       </c>
       <c r="B109">
-        <v>240</v>
-      </c>
-      <c r="C109">
-        <v>12000</v>
+        <v>-1000</v>
+      </c>
+      <c r="C109" s="2">
+        <v>-10000</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>44337</v>
+      <c r="A110" s="3">
+        <v>44462</v>
       </c>
       <c r="B110">
-        <v>232</v>
-      </c>
-      <c r="C110">
-        <v>11600</v>
+        <v>-16000</v>
+      </c>
+      <c r="C110" s="2">
+        <v>-160000</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>44344</v>
+      <c r="A111" s="3">
+        <v>44476</v>
       </c>
       <c r="B111">
-        <v>528</v>
-      </c>
-      <c r="C111">
-        <v>26400</v>
+        <v>-28000</v>
+      </c>
+      <c r="C111" s="2">
+        <v>-280000</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>44351</v>
+      <c r="A112" s="3">
+        <v>44476</v>
       </c>
       <c r="B112">
-        <v>432</v>
-      </c>
-      <c r="C112">
-        <v>21600</v>
+        <v>-16000</v>
+      </c>
+      <c r="C112" s="2">
+        <v>-160000</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>44358</v>
+      <c r="A113" s="3">
+        <v>44481</v>
       </c>
       <c r="B113">
-        <v>240</v>
-      </c>
-      <c r="C113">
-        <v>12000</v>
+        <v>-10000</v>
+      </c>
+      <c r="C113" s="2">
+        <v>-100000</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>44362</v>
+      <c r="A114" s="3">
+        <v>44587</v>
       </c>
       <c r="B114">
-        <v>240</v>
-      </c>
-      <c r="C114">
-        <v>12000</v>
+        <v>0</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44931</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44376</v>
+        <v>44300</v>
       </c>
       <c r="B115">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>20300</v>
+        <v>9600</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F115" t="s">
         <v>9</v>
@@ -2430,13 +2493,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44383</v>
+        <v>44315</v>
       </c>
       <c r="B116">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>31200</v>
+        <v>6500</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
@@ -2447,13 +2510,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44406</v>
+        <v>44330</v>
       </c>
       <c r="B117">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>16800</v>
+        <v>12000</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -2464,13 +2527,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44453</v>
+        <v>44337</v>
       </c>
       <c r="B118">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>16800</v>
+        <v>11600</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -2481,13 +2544,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44460</v>
+        <v>44344</v>
       </c>
       <c r="B119">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>31200</v>
+        <v>26400</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
@@ -2498,16 +2561,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44467</v>
+        <v>44351</v>
       </c>
       <c r="B120">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>33600</v>
+        <v>21600</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -2515,16 +2581,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44474</v>
+        <v>44358</v>
       </c>
       <c r="B121">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>33600</v>
+        <v>12000</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F121" t="s">
         <v>9</v>
@@ -2532,19 +2601,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>44481</v>
+        <v>44362</v>
       </c>
       <c r="B122">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>50400</v>
+        <v>12000</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
@@ -2552,19 +2621,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44488</v>
+        <v>44376</v>
       </c>
       <c r="B123">
-        <v>2592</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>129600</v>
+        <v>20300</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -2572,56 +2641,162 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>44256</v>
+        <v>44383</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>200000</v>
+        <v>31200</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>-160000</v>
+        <v>16800</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>16800</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>31200</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>33600</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>33600</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>50400</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>129600</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2832,25 +3007,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6107EEC8-B1FE-4ABF-8E07-9A759B16FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2867,12 +3049,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -19,21 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +69,9 @@
   </si>
   <si>
     <t>PfizerKids</t>
+  </si>
+  <si>
+    <t>Sputnik</t>
   </si>
 </sst>
 </file>
@@ -131,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -143,6 +137,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -458,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2462,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="2">
-        <v>44931</v>
+        <v>44389</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -2773,6 +2769,42 @@
       </c>
       <c r="F131" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B132" s="7">
+        <v>0</v>
+      </c>
+      <c r="C132" s="7">
+        <v>200000</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="8">
+        <v>44379</v>
+      </c>
+      <c r="B133" s="7">
+        <v>0</v>
+      </c>
+      <c r="C133" s="7">
+        <v>-160000</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2782,18 +2814,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3008,14 +3040,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3028,6 +3052,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
     <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sufliark\Documents\MZ-SR\git\covid19-data\Vaccination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sufliark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F133" sqref="A1:F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2800,7 +2800,7 @@
         <v>-160000</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7" t="s">
@@ -2814,18 +2814,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3040,6 +3040,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3052,14 +3060,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
     <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sufliark\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sufliark\Documents\MZ-SR\git\covid19-data\Vaccination\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F133" sqref="A1:F133"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="2">
-        <v>44389</v>
+        <v>45010</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -2800,7 +2800,7 @@
         <v>-160000</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7" t="s">
@@ -2814,21 +2814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -3039,32 +3024,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6107EEC8-B1FE-4ABF-8E07-9A759B16FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3081,4 +3056,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
+++ b/Vaccination/OpenData_Slovakia_Covid_VaccinesDelivery.xlsx
@@ -141,25 +141,26 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -479,2658 +480,2658 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection sqref="A1:F144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>44191</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>9750</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>44200</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>78</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>76050</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>44207</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>44</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>42900</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>44214</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>40</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>46800</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>44221</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>27</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>31590</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>44228</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>39</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>45630</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>44235</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>39</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>45630</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>44243</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>10530</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>44244</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>34</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="9">
         <v>39780</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>44245</v>
       </c>
-      <c r="B11" s="7">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
         <v>5850</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>44249</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>48</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>56160</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>44256</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>44</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <v>51480</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>44263</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>129</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="9">
         <v>150930</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>44270</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>44</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="9">
         <v>51480</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>44277</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>47</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="9">
         <v>54990</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>44284</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>47</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="9">
         <v>54990</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>44291</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>62</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="9">
         <v>72540</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7" t="s">
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>44298</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>63</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="9">
         <v>73710</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>44305</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>63</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="9">
         <v>73710</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7" t="s">
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>44312</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>113</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="9">
         <v>132210</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7" t="s">
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>44319</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>174</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="9">
         <v>203580</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>44326</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>174</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="9">
         <v>203580</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>44333</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>176</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="9">
         <v>205920</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7" t="s">
+      <c r="D24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>44340</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>176</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="9">
         <v>205920</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7" t="s">
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>44347</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>195</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="9">
         <v>228150</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7" t="s">
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>44354</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>165</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="9">
         <v>193050</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="7" t="s">
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>44361</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>165</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="9">
         <v>193050</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="7" t="s">
+      <c r="D28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>44368</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>227</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="9">
         <v>265590</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>44375</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>227</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="9">
         <v>265590</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="7" t="s">
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>44382</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>71</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="9">
         <v>83070</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7" t="s">
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>44389</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>71</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9">
         <v>83070</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="7" t="s">
+      <c r="D32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>44396</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>71</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="9">
         <v>83070</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7" t="s">
+      <c r="D33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>44403</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>72</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="9">
         <v>84240</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="7" t="s">
+      <c r="D34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <v>44410</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>56</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="9">
         <v>65520</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7" t="s">
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>44417</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>56</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="9">
         <v>65520</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="7" t="s">
+      <c r="D36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <v>44424</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>57</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="9">
         <v>66690</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="7" t="s">
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>44431</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>58</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="9">
         <v>67860</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7" t="s">
+      <c r="D38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+      <c r="A39" s="6">
         <v>44438</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>81</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="9">
         <v>94770</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7" t="s">
+      <c r="D39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>44445</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>81</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="9">
         <v>94770</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7" t="s">
+      <c r="D40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <v>44452</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>54</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="9">
         <v>63180</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7" t="s">
+      <c r="D41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>44459</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="5">
         <v>193</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="9">
         <v>225810</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="7" t="s">
+      <c r="D42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+      <c r="A43" s="6">
         <v>44466</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>490</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="9">
         <v>573300</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7" t="s">
+      <c r="D43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+      <c r="A44" s="6">
         <v>44473</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="5">
         <v>11</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="9">
         <v>12870</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="7" t="s">
+      <c r="D44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="A45" s="6">
         <v>44480</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>11</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="9">
         <v>12870</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="7" t="s">
+      <c r="D45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <v>44487</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>11</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="9">
         <v>12870</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="7" t="s">
+      <c r="D46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+      <c r="A47" s="6">
         <v>44494</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>10</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>11700</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="7" t="s">
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+      <c r="A48" s="6">
         <v>44533</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>165</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>193050</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="7" t="s">
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+      <c r="A49" s="6">
         <v>44538</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>166</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>194220</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="7" t="s">
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>44545</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="5">
         <v>166</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>194220</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="7" t="s">
+      <c r="D50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+      <c r="A51" s="6">
         <v>44573</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="5">
         <v>26</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="10">
         <v>30420</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="6"/>
+      <c r="D51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+      <c r="A52" s="6">
         <v>44580</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>485</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="10">
         <v>567450</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="7" t="s">
+      <c r="D52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+      <c r="A53" s="6">
         <v>44587</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="5">
         <v>170</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="11">
         <v>198900</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="7" t="s">
+      <c r="D53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+      <c r="A54" s="6">
         <v>44594</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="5">
         <v>170</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="11">
         <v>198900</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="7" t="s">
+      <c r="D54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+      <c r="A55" s="6">
         <v>44601</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>171</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="11">
         <v>200070</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="7" t="s">
+      <c r="D55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+      <c r="A56" s="6">
         <v>44608</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>171</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="11">
         <v>200070</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="7" t="s">
+      <c r="D56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+      <c r="A57" s="6">
         <v>44615</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>170</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="11">
         <v>198900</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="7" t="s">
+      <c r="D57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+      <c r="A58" s="6">
         <v>44622</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="5">
         <v>170</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="11">
         <v>198900</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="7" t="s">
+      <c r="D58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+      <c r="A59" s="6">
         <v>44629</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>171</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="11">
         <v>200070</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="7" t="s">
+      <c r="D59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+      <c r="A60" s="6">
         <v>44636</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="5">
         <v>171</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="11">
         <v>200070</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="7" t="s">
+      <c r="D60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+      <c r="A61" s="6">
         <v>44546</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>160</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="10">
         <v>156000</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="7" t="s">
+      <c r="D61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A62" s="6">
         <v>44207</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>48</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>4800</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="7" t="s">
+      <c r="D62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+      <c r="A63" s="6">
         <v>44221</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="5">
         <v>60</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <v>6000</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="7" t="s">
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
+      <c r="A64" s="6">
         <v>44235</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>120</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>12000</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="7" t="s">
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
+      <c r="A65" s="6">
         <v>44253</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="5">
         <v>228</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="8">
         <v>22800</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="7" t="s">
+      <c r="D65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
+      <c r="A66" s="6">
         <v>44267</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="5">
         <v>300</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="8">
         <v>30000</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="7" t="s">
+      <c r="D66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
+      <c r="A67" s="6">
         <v>44280</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="5">
         <v>456</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <v>45600</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="7" t="s">
+      <c r="D67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
+      <c r="A68" s="6">
         <v>44294</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="5">
         <v>384</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <v>38400</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="7" t="s">
+      <c r="D68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+      <c r="A69" s="6">
         <v>44311</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="5">
         <v>216</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="8">
         <v>21600</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="7" t="s">
+      <c r="D69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+      <c r="A70" s="6">
         <v>44315</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="5">
         <v>252</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="8">
         <v>25200</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="7" t="s">
+      <c r="D70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
+      <c r="A71" s="6">
         <v>44322</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="5">
         <v>360</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <v>36000</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="7" t="s">
+      <c r="D71" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+      <c r="A72" s="6">
         <v>44329</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="5">
         <v>360</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <v>36000</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="7" t="s">
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
+      <c r="A73" s="6">
         <v>44336</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="5">
         <v>360</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="8">
         <v>36000</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="7" t="s">
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+      <c r="A74" s="6">
         <v>44343</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="5">
         <v>360</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="8">
         <v>36000</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="7" t="s">
+      <c r="D74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
+      <c r="A75" s="6">
         <v>44350</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="5">
         <v>360</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="8">
         <v>36000</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="7" t="s">
+      <c r="D75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
+      <c r="A76" s="6">
         <v>44362</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="5">
         <v>360</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="8">
         <v>36000</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="7" t="s">
+      <c r="D76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
+      <c r="A77" s="6">
         <v>44365</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="5">
         <v>384</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="8">
         <v>38400</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="7" t="s">
+      <c r="D77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
+      <c r="A78" s="6">
         <v>44372</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="5">
         <v>408</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="8">
         <v>40800</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="7" t="s">
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
+      <c r="A79" s="6">
         <v>44379</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="5">
         <v>408</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="8">
         <v>40800</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="7" t="s">
+      <c r="D79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
+      <c r="A80" s="6">
         <v>44386</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="5">
         <v>312</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="8">
         <v>31200</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="7" t="s">
+      <c r="D80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
+      <c r="A81" s="6">
         <v>44393</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="5">
         <v>312</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="8">
         <v>31200</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="7" t="s">
+      <c r="D81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+      <c r="A82" s="6">
         <v>44400</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="5">
         <v>312</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="8">
         <v>31200</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="7" t="s">
+      <c r="D82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
+      <c r="A83" s="6">
         <v>44407</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="5">
         <v>312</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="8">
         <v>31200</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="7" t="s">
+      <c r="D83" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
+      <c r="A84" s="6">
         <v>44414</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="5">
         <v>312</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="8">
         <v>31200</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="7" t="s">
+      <c r="D84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
+      <c r="A85" s="6">
         <v>44421</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="5">
         <v>312</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="8">
         <v>31200</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="7" t="s">
+      <c r="D85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+      <c r="A86" s="6">
         <v>44427</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="5">
         <v>312</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="8">
         <v>31200</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="7" t="s">
+      <c r="D86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
+      <c r="A87" s="6">
         <v>44428</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="5">
         <v>300</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="8">
         <v>30000</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="7" t="s">
+      <c r="D87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+      <c r="A88" s="6">
         <v>44435</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="5">
         <v>612</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="8">
         <v>61200</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="7" t="s">
+      <c r="D88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+      <c r="A89" s="6">
         <v>44498</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="5">
         <v>12</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="8">
         <v>1200</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="7" t="s">
+      <c r="D89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+      <c r="A90" s="6">
         <v>44505</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="5">
         <v>156</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="8">
         <v>15600</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="7" t="s">
+      <c r="D90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
+      <c r="A91" s="6">
         <v>44585</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="5">
         <v>12</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="12">
         <v>1200</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="7" t="s">
+      <c r="D91" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
+      <c r="A92" s="6">
         <v>44614</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="5">
         <v>12</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="12">
         <v>1200</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="7" t="s">
+      <c r="D92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
+      <c r="A93" s="6">
         <v>44351</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="5">
         <v>-607</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="8">
         <v>-60700</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
+      <c r="A94" s="6">
         <v>44351</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="5">
         <v>-10</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="8">
         <v>-10000</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>44232</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="5">
         <v>2160</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="9">
         <v>21600</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="8" t="s">
+      <c r="D95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>44237</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="5">
         <v>2880</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="9">
         <v>28800</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="8" t="s">
+      <c r="D96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>44244</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="5">
         <v>4560</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="9">
         <v>45600</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="8" t="s">
+      <c r="D97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>44253</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="5">
         <v>4080</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="9">
         <v>40800</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E98" s="8" t="s">
+      <c r="D98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>44260</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="5">
         <v>6000</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="9">
         <v>60000</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="8" t="s">
+      <c r="D99" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>44267</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="5">
         <v>4620</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="9">
         <v>46200</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="8" t="s">
+      <c r="D100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>44273</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="5">
         <v>1200</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="9">
         <v>12000</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="8" t="s">
+      <c r="D101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>44280</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="5">
         <v>1200</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="9">
         <v>12000</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="8" t="s">
+      <c r="D102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>44287</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="5">
         <v>12000</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="9">
         <v>120000</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="8" t="s">
+      <c r="D103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>44294</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="5">
         <v>1680</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="9">
         <v>16800</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" s="8" t="s">
+      <c r="D104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>44305</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="5">
         <v>4080</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="9">
         <v>40800</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" s="8" t="s">
+      <c r="D105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>44312</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="5">
         <v>1200</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="9">
         <v>12000</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E106" s="8" t="s">
+      <c r="D106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>44316</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="5">
         <v>18000</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="9">
         <v>180000</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E107" s="8" t="s">
+      <c r="D107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>44327</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="5">
         <v>3840</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="9">
         <v>38400</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="7" t="s">
+      <c r="D108" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>44334</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="5">
         <v>2880</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="9">
         <v>28800</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="7" t="s">
+      <c r="D109" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>44341</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="5">
         <v>15840</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="9">
         <v>158400</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="7" t="s">
+      <c r="D110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <v>44361</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="5">
         <v>4800</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="9">
         <v>48000</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="7" t="s">
+      <c r="D111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <v>44369</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="5">
         <v>5760</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="9">
         <v>57600</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="8" t="s">
+      <c r="D112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <v>44376</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="5">
         <v>32880</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="9">
         <v>328800</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="8" t="s">
+      <c r="D113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>44383</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="5">
         <v>5760</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="9">
         <v>57600</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="8" t="s">
+      <c r="D114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>44392</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="5">
         <v>2880</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="9">
         <v>28800</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="8" t="s">
+      <c r="D115" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <v>44400</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="5">
         <v>7920</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="9">
         <v>79200</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="7" t="s">
+      <c r="D116" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <v>44406</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="5">
         <v>10560</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="9">
         <v>105600</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="7" t="s">
+      <c r="D117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <v>44420</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="5">
         <v>-6000</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="9">
         <v>-60000</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="7" t="s">
+      <c r="E118" s="6"/>
+      <c r="F118" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <v>44427</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="5">
         <v>-1000</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="9">
         <v>-10000</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="7" t="s">
+      <c r="E119" s="6"/>
+      <c r="F119" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <v>44462</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="5">
         <v>-16000</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="9">
         <v>-160000</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="7" t="s">
+      <c r="E120" s="6"/>
+      <c r="F120" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <v>44476</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="5">
         <v>-28000</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="9">
         <v>-280000</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="7" t="s">
+      <c r="E121" s="6"/>
+      <c r="F121" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>44476</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="5">
         <v>-16000</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="9">
         <v>-160000</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="7" t="s">
+      <c r="E122" s="6"/>
+      <c r="F122" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <v>44481</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="5">
         <v>-10000</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="9">
         <v>-100000</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="7" t="s">
+      <c r="E123" s="6"/>
+      <c r="F123" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <v>44587</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="5">
         <v>0</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="9">
         <v>45010</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="7" t="s">
+      <c r="E124" s="6"/>
+      <c r="F124" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="8">
+      <c r="A125" s="6">
         <v>44300</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="5">
         <v>0</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="8">
         <v>9600</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" s="8" t="s">
+      <c r="D125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="8">
+      <c r="A126" s="6">
         <v>44315</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="5">
         <v>0</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="8">
         <v>6500</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="7" t="s">
+      <c r="D126" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="6"/>
+      <c r="F126" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
+      <c r="A127" s="6">
         <v>44330</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="5">
         <v>0</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="8">
         <v>12000</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="7" t="s">
+      <c r="D127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
+      <c r="A128" s="6">
         <v>44337</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="5">
         <v>0</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="8">
         <v>11600</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="7" t="s">
+      <c r="D128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="6"/>
+      <c r="F128" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="8">
+      <c r="A129" s="6">
         <v>44344</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="5">
         <v>0</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="8">
         <v>26400</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="7" t="s">
+      <c r="D129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="6"/>
+      <c r="F129" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="8">
+      <c r="A130" s="6">
         <v>44351</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="5">
         <v>0</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="8">
         <v>21600</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" s="8" t="s">
+      <c r="D130" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="8">
+      <c r="A131" s="6">
         <v>44358</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="5">
         <v>0</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="8">
         <v>12000</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" s="8" t="s">
+      <c r="D131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="8">
+      <c r="A132" s="6">
         <v>44362</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="5">
         <v>0</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="8">
         <v>12000</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="8" t="s">
+      <c r="D132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="8">
+      <c r="A133" s="6">
         <v>44376</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="5">
         <v>0</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="8">
         <v>20300</v>
       </c>
-      <c r="D133" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E133" s="8" t="s">
+      <c r="D133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="8">
+      <c r="A134" s="6">
         <v>44383</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="5">
         <v>0</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="8">
         <v>31200</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="7" t="s">
+      <c r="D134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="F134" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="8">
+      <c r="A135" s="6">
         <v>44406</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="5">
         <v>0</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="8">
         <v>16800</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="7" t="s">
+      <c r="D135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="6"/>
+      <c r="F135" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="8">
+      <c r="A136" s="6">
         <v>44453</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="5">
         <v>0</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="8">
         <v>16800</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="7" t="s">
+      <c r="D136" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="6"/>
+      <c r="F136" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="8">
+      <c r="A137" s="6">
         <v>44460</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="5">
         <v>0</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="8">
         <v>31200</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="7" t="s">
+      <c r="D137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="8">
+      <c r="A138" s="6">
         <v>44467</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="5">
         <v>0</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="8">
         <v>33600</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="7" t="s">
+      <c r="D138" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="8">
+      <c r="A139" s="6">
         <v>44474</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="5">
         <v>0</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="8">
         <v>33600</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="7" t="s">
+      <c r="D139" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="8">
+      <c r="A140" s="6">
         <v>44481</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="5">
         <v>0</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="8">
         <v>50400</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="7" t="s">
+      <c r="D140" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="6"/>
+      <c r="F140" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="8">
+      <c r="A141" s="6">
         <v>44488</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="5">
         <v>0</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="8">
         <v>129600</v>
       </c>
-      <c r="D141" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="7" t="s">
+      <c r="D141" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="6"/>
+      <c r="F141" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="8">
+      <c r="A142" s="6">
         <v>44256</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="5">
         <v>0</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="8">
         <v>200000</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7" t="s">
+      <c r="D142" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="8">
+      <c r="A143" s="6">
         <v>44379</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="5">
         <v>0</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="8">
         <v>-160000</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7" t="s">
+      <c r="D143" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="11">
+      <c r="A144" s="7">
         <v>44622</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="12">
         <v>93000</v>
       </c>
-      <c r="D144" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="7" t="s">
+      <c r="D144" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="6"/>
+      <c r="F144" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3141,21 +3142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -3366,32 +3352,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6107EEC8-B1FE-4ABF-8E07-9A759B16FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3408,4 +3384,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F8E8F5-9F53-4C11-BF33-B617FC5AD934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33451377-66A1-4E6A-8C3F-5D5528A907FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>